--- a/Input/Takaful_Mednet/rateSheet.xlsx
+++ b/Input/Takaful_Mednet/rateSheet.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$505</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -119,6 +122,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -139,6 +143,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,12 +188,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -208,6 +217,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -215,13 +228,13 @@
   </sheetPr>
   <dimension ref="A1:I505"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H339" activeCellId="0" sqref="H339"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G388" activeCellId="0" sqref="G388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -272,7 +285,7 @@
       <c r="F2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <v>11010.65</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -301,7 +314,7 @@
       <c r="F3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="2" t="n">
         <v>7574.03</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -330,7 +343,7 @@
       <c r="F4" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="2" t="n">
         <v>7063.97</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -359,7 +372,7 @@
       <c r="F5" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="2" t="n">
         <v>6000.09</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -388,7 +401,7 @@
       <c r="F6" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="2" t="n">
         <v>6038.93</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -417,7 +430,7 @@
       <c r="F7" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="2" t="n">
         <v>6540.53</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -446,7 +459,7 @@
       <c r="F8" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="2" t="n">
         <v>7106.12</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -475,7 +488,7 @@
       <c r="F9" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="2" t="n">
         <v>7905.93</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -504,7 +517,7 @@
       <c r="F10" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="2" t="n">
         <v>8660.72</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -533,7 +546,7 @@
       <c r="F11" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="2" t="n">
         <v>10305.8</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -562,7 +575,7 @@
       <c r="F12" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="2" t="n">
         <v>12524.92</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -591,7 +604,7 @@
       <c r="F13" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="2" t="n">
         <v>14061.76</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -620,7 +633,7 @@
       <c r="F14" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="2" t="n">
         <v>21259.77</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -649,7 +662,7 @@
       <c r="F15" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="2" t="n">
         <v>31498.58</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -678,7 +691,7 @@
       <c r="F16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="2" t="n">
         <v>11010.65</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -707,7 +720,7 @@
       <c r="F17" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="2" t="n">
         <v>7574.03</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -736,7 +749,7 @@
       <c r="F18" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="2" t="n">
         <v>7063.97</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -765,7 +778,7 @@
       <c r="F19" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G19" s="1" t="n">
+      <c r="G19" s="2" t="n">
         <v>6741.83</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -794,7 +807,7 @@
       <c r="F20" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="2" t="n">
         <v>12891.99</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -823,7 +836,7 @@
       <c r="F21" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="G21" s="2" t="n">
         <v>14476.26</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -852,7 +865,7 @@
       <c r="F22" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="G22" s="2" t="n">
         <v>13806.85</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -881,7 +894,7 @@
       <c r="F23" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G23" s="1" t="n">
+      <c r="G23" s="2" t="n">
         <v>11690.27</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -910,7 +923,7 @@
       <c r="F24" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="G24" s="2" t="n">
         <v>11586.53</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -939,7 +952,7 @@
       <c r="F25" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G25" s="1" t="n">
+      <c r="G25" s="2" t="n">
         <v>13373.93</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -968,7 +981,7 @@
       <c r="F26" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G26" s="1" t="n">
+      <c r="G26" s="2" t="n">
         <v>14542.17</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -997,7 +1010,7 @@
       <c r="F27" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G27" s="1" t="n">
+      <c r="G27" s="2" t="n">
         <v>16515</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -1026,7 +1039,7 @@
       <c r="F28" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G28" s="1" t="n">
+      <c r="G28" s="2" t="n">
         <v>26264.66</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -1055,7 +1068,7 @@
       <c r="F29" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G29" s="1" t="n">
+      <c r="G29" s="2" t="n">
         <v>31498.58</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -1084,7 +1097,7 @@
       <c r="F30" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G30" s="1" t="n">
+      <c r="G30" s="2" t="n">
         <v>9819.49</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -1113,7 +1126,7 @@
       <c r="F31" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G31" s="1" t="n">
+      <c r="G31" s="2" t="n">
         <v>6721.87</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -1142,7 +1155,7 @@
       <c r="F32" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G32" s="1" t="n">
+      <c r="G32" s="2" t="n">
         <v>6256.04</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -1171,7 +1184,7 @@
       <c r="F33" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G33" s="1" t="n">
+      <c r="G33" s="2" t="n">
         <v>5140.64</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -1200,7 +1213,7 @@
       <c r="F34" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G34" s="1" t="n">
+      <c r="G34" s="2" t="n">
         <v>5451.61</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -1229,7 +1242,7 @@
       <c r="F35" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G35" s="1" t="n">
+      <c r="G35" s="2" t="n">
         <v>5894.48</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -1258,7 +1271,7 @@
       <c r="F36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G36" s="1" t="n">
+      <c r="G36" s="2" t="n">
         <v>6390.28</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -1287,7 +1300,7 @@
       <c r="F37" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G37" s="1" t="n">
+      <c r="G37" s="2" t="n">
         <v>7122.98</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -1316,7 +1329,7 @@
       <c r="F38" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G38" s="1" t="n">
+      <c r="G38" s="2" t="n">
         <v>7803.99</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -1345,7 +1358,7 @@
       <c r="F39" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G39" s="1" t="n">
+      <c r="G39" s="2" t="n">
         <v>9306.2</v>
       </c>
       <c r="H39" s="1" t="s">
@@ -1374,7 +1387,7 @@
       <c r="F40" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G40" s="1" t="n">
+      <c r="G40" s="2" t="n">
         <v>11331.36</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -1403,7 +1416,7 @@
       <c r="F41" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G41" s="1" t="n">
+      <c r="G41" s="2" t="n">
         <v>12731.77</v>
       </c>
       <c r="H41" s="1" t="s">
@@ -1432,7 +1445,7 @@
       <c r="F42" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G42" s="1" t="n">
+      <c r="G42" s="2" t="n">
         <v>19279.79</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -1461,7 +1474,7 @@
       <c r="F43" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G43" s="1" t="n">
+      <c r="G43" s="2" t="n">
         <v>28542.44</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -1490,7 +1503,7 @@
       <c r="F44" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G44" s="1" t="n">
+      <c r="G44" s="2" t="n">
         <v>9819.49</v>
       </c>
       <c r="H44" s="1" t="s">
@@ -1519,7 +1532,7 @@
       <c r="F45" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G45" s="1" t="n">
+      <c r="G45" s="2" t="n">
         <v>6721.87</v>
       </c>
       <c r="H45" s="1" t="s">
@@ -1548,7 +1561,7 @@
       <c r="F46" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G46" s="1" t="n">
+      <c r="G46" s="2" t="n">
         <v>6256.04</v>
       </c>
       <c r="H46" s="1" t="s">
@@ -1577,7 +1590,7 @@
       <c r="F47" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G47" s="1" t="n">
+      <c r="G47" s="2" t="n">
         <v>5953.73</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -1606,7 +1619,7 @@
       <c r="F48" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G48" s="1" t="n">
+      <c r="G48" s="2" t="n">
         <v>11569.82</v>
       </c>
       <c r="H48" s="1" t="s">
@@ -1635,7 +1648,7 @@
       <c r="F49" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G49" s="1" t="n">
+      <c r="G49" s="2" t="n">
         <v>13052.05</v>
       </c>
       <c r="H49" s="1" t="s">
@@ -1664,7 +1677,7 @@
       <c r="F50" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G50" s="1" t="n">
+      <c r="G50" s="2" t="n">
         <v>12506.57</v>
       </c>
       <c r="H50" s="1" t="s">
@@ -1693,7 +1706,7 @@
       <c r="F51" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G51" s="1" t="n">
+      <c r="G51" s="2" t="n">
         <v>10517.51</v>
       </c>
       <c r="H51" s="1" t="s">
@@ -1722,7 +1735,7 @@
       <c r="F52" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G52" s="1" t="n">
+      <c r="G52" s="2" t="n">
         <v>10384.14</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -1751,7 +1764,7 @@
       <c r="F53" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G53" s="1" t="n">
+      <c r="G53" s="2" t="n">
         <v>11936.42</v>
       </c>
       <c r="H53" s="1" t="s">
@@ -1780,7 +1793,7 @@
       <c r="F54" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G54" s="1" t="n">
+      <c r="G54" s="2" t="n">
         <v>12968.95</v>
       </c>
       <c r="H54" s="1" t="s">
@@ -1809,7 +1822,7 @@
       <c r="F55" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G55" s="1" t="n">
+      <c r="G55" s="2" t="n">
         <v>14756.25</v>
       </c>
       <c r="H55" s="1" t="s">
@@ -1838,7 +1851,7 @@
       <c r="F56" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G56" s="1" t="n">
+      <c r="G56" s="2" t="n">
         <v>23457.63</v>
       </c>
       <c r="H56" s="1" t="s">
@@ -1867,7 +1880,7 @@
       <c r="F57" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G57" s="1" t="n">
+      <c r="G57" s="2" t="n">
         <v>28382.08</v>
       </c>
       <c r="H57" s="1" t="s">
@@ -1896,7 +1909,7 @@
       <c r="F58" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G58" s="1" t="n">
+      <c r="G58" s="2" t="n">
         <v>7495.24</v>
       </c>
       <c r="H58" s="1" t="s">
@@ -1925,7 +1938,7 @@
       <c r="F59" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G59" s="1" t="n">
+      <c r="G59" s="2" t="n">
         <v>5167.88</v>
       </c>
       <c r="H59" s="1" t="s">
@@ -1954,7 +1967,7 @@
       <c r="F60" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G60" s="1" t="n">
+      <c r="G60" s="2" t="n">
         <v>4782.69</v>
       </c>
       <c r="H60" s="1" t="s">
@@ -1983,7 +1996,7 @@
       <c r="F61" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G61" s="1" t="n">
+      <c r="G61" s="2" t="n">
         <v>3926.98</v>
       </c>
       <c r="H61" s="1" t="s">
@@ -2012,7 +2025,7 @@
       <c r="F62" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G62" s="1" t="n">
+      <c r="G62" s="2" t="n">
         <v>4187.79</v>
       </c>
       <c r="H62" s="1" t="s">
@@ -2041,7 +2054,7 @@
       <c r="F63" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G63" s="1" t="n">
+      <c r="G63" s="2" t="n">
         <v>4534.27</v>
       </c>
       <c r="H63" s="1" t="s">
@@ -2070,7 +2083,7 @@
       <c r="F64" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G64" s="1" t="n">
+      <c r="G64" s="2" t="n">
         <v>4924.67</v>
       </c>
       <c r="H64" s="1" t="s">
@@ -2099,7 +2112,7 @@
       <c r="F65" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G65" s="1" t="n">
+      <c r="G65" s="2" t="n">
         <v>5479.2</v>
       </c>
       <c r="H65" s="1" t="s">
@@ -2128,7 +2141,7 @@
       <c r="F66" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G66" s="1" t="n">
+      <c r="G66" s="2" t="n">
         <v>5997</v>
       </c>
       <c r="H66" s="1" t="s">
@@ -2157,7 +2170,7 @@
       <c r="F67" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G67" s="1" t="n">
+      <c r="G67" s="2" t="n">
         <v>7136.36</v>
       </c>
       <c r="H67" s="1" t="s">
@@ -2186,7 +2199,7 @@
       <c r="F68" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G68" s="1" t="n">
+      <c r="G68" s="2" t="n">
         <v>8677.58</v>
       </c>
       <c r="H68" s="1" t="s">
@@ -2215,7 +2228,7 @@
       <c r="F69" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G69" s="1" t="n">
+      <c r="G69" s="2" t="n">
         <v>9735.77</v>
       </c>
       <c r="H69" s="1" t="s">
@@ -2244,7 +2257,7 @@
       <c r="F70" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G70" s="1" t="n">
+      <c r="G70" s="2" t="n">
         <v>14724.27</v>
       </c>
       <c r="H70" s="1" t="s">
@@ -2273,7 +2286,7 @@
       <c r="F71" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G71" s="1" t="n">
+      <c r="G71" s="2" t="n">
         <v>21799.88</v>
       </c>
       <c r="H71" s="1" t="s">
@@ -2302,7 +2315,7 @@
       <c r="F72" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G72" s="1" t="n">
+      <c r="G72" s="2" t="n">
         <v>7495.24</v>
       </c>
       <c r="H72" s="1" t="s">
@@ -2331,7 +2344,7 @@
       <c r="F73" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G73" s="1" t="n">
+      <c r="G73" s="2" t="n">
         <v>5167.88</v>
       </c>
       <c r="H73" s="1" t="s">
@@ -2360,7 +2373,7 @@
       <c r="F74" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G74" s="1" t="n">
+      <c r="G74" s="2" t="n">
         <v>4782.69</v>
       </c>
       <c r="H74" s="1" t="s">
@@ -2389,7 +2402,7 @@
       <c r="F75" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G75" s="1" t="n">
+      <c r="G75" s="2" t="n">
         <v>4563.42</v>
       </c>
       <c r="H75" s="1" t="s">
@@ -2418,7 +2431,7 @@
       <c r="F76" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G76" s="1" t="n">
+      <c r="G76" s="2" t="n">
         <v>8877.46</v>
       </c>
       <c r="H76" s="1" t="s">
@@ -2447,7 +2460,7 @@
       <c r="F77" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G77" s="1" t="n">
+      <c r="G77" s="2" t="n">
         <v>9970.29</v>
       </c>
       <c r="H77" s="1" t="s">
@@ -2476,7 +2489,7 @@
       <c r="F78" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G78" s="1" t="n">
+      <c r="G78" s="2" t="n">
         <v>9515.91</v>
       </c>
       <c r="H78" s="1" t="s">
@@ -2505,7 +2518,7 @@
       <c r="F79" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G79" s="1" t="n">
+      <c r="G79" s="2" t="n">
         <v>8051.06</v>
       </c>
       <c r="H79" s="1" t="s">
@@ -2534,7 +2547,7 @@
       <c r="F80" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G80" s="1" t="n">
+      <c r="G80" s="2" t="n">
         <v>7975.04</v>
       </c>
       <c r="H80" s="1" t="s">
@@ -2563,7 +2576,7 @@
       <c r="F81" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G81" s="1" t="n">
+      <c r="G81" s="2" t="n">
         <v>9198.69</v>
       </c>
       <c r="H81" s="1" t="s">
@@ -2592,7 +2605,7 @@
       <c r="F82" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G82" s="1" t="n">
+      <c r="G82" s="2" t="n">
         <v>10000.84</v>
       </c>
       <c r="H82" s="1" t="s">
@@ -2621,7 +2634,7 @@
       <c r="F83" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G83" s="1" t="n">
+      <c r="G83" s="2" t="n">
         <v>11356.79</v>
       </c>
       <c r="H83" s="1" t="s">
@@ -2650,7 +2663,7 @@
       <c r="F84" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G84" s="1" t="n">
+      <c r="G84" s="2" t="n">
         <v>18056.57</v>
       </c>
       <c r="H84" s="1" t="s">
@@ -2679,7 +2692,7 @@
       <c r="F85" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G85" s="1" t="n">
+      <c r="G85" s="2" t="n">
         <v>21676.71</v>
       </c>
       <c r="H85" s="1" t="s">
@@ -2708,7 +2721,7 @@
       <c r="F86" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G86" s="1" t="n">
+      <c r="G86" s="2" t="n">
         <v>5784.71</v>
       </c>
       <c r="H86" s="1" t="s">
@@ -2737,7 +2750,7 @@
       <c r="F87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G87" s="1" t="n">
+      <c r="G87" s="2" t="n">
         <v>3977.77</v>
       </c>
       <c r="H87" s="1" t="s">
@@ -2766,7 +2779,7 @@
       <c r="F88" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G88" s="1" t="n">
+      <c r="G88" s="2" t="n">
         <v>3654.14</v>
       </c>
       <c r="H88" s="1" t="s">
@@ -2795,7 +2808,7 @@
       <c r="F89" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G89" s="1" t="n">
+      <c r="G89" s="2" t="n">
         <v>3004.29</v>
       </c>
       <c r="H89" s="1" t="s">
@@ -2824,7 +2837,7 @@
       <c r="F90" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G90" s="1" t="n">
+      <c r="G90" s="2" t="n">
         <v>3176.65</v>
       </c>
       <c r="H90" s="1" t="s">
@@ -2853,7 +2866,7 @@
       <c r="F91" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G91" s="1" t="n">
+      <c r="G91" s="2" t="n">
         <v>3433.55</v>
       </c>
       <c r="H91" s="1" t="s">
@@ -2882,7 +2895,7 @@
       <c r="F92" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G92" s="1" t="n">
+      <c r="G92" s="2" t="n">
         <v>3721.01</v>
       </c>
       <c r="H92" s="1" t="s">
@@ -2911,7 +2924,7 @@
       <c r="F93" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G93" s="1" t="n">
+      <c r="G93" s="2" t="n">
         <v>4147.15</v>
       </c>
       <c r="H93" s="1" t="s">
@@ -2940,7 +2953,7 @@
       <c r="F94" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G94" s="1" t="n">
+      <c r="G94" s="2" t="n">
         <v>4543.13</v>
       </c>
       <c r="H94" s="1" t="s">
@@ -2969,7 +2982,7 @@
       <c r="F95" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G95" s="1" t="n">
+      <c r="G95" s="2" t="n">
         <v>5416.76</v>
       </c>
       <c r="H95" s="1" t="s">
@@ -2998,7 +3011,7 @@
       <c r="F96" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G96" s="1" t="n">
+      <c r="G96" s="2" t="n">
         <v>6594.04</v>
       </c>
       <c r="H96" s="1" t="s">
@@ -3027,7 +3040,7 @@
       <c r="F97" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G97" s="1" t="n">
+      <c r="G97" s="2" t="n">
         <v>7415.35</v>
       </c>
       <c r="H97" s="1" t="s">
@@ -3056,7 +3069,7 @@
       <c r="F98" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G98" s="1" t="n">
+      <c r="G98" s="2" t="n">
         <v>11215.37</v>
       </c>
       <c r="H98" s="1" t="s">
@@ -3085,7 +3098,7 @@
       <c r="F99" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G99" s="1" t="n">
+      <c r="G99" s="2" t="n">
         <v>16599.68</v>
       </c>
       <c r="H99" s="1" t="s">
@@ -3114,7 +3127,7 @@
       <c r="F100" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G100" s="1" t="n">
+      <c r="G100" s="2" t="n">
         <v>5784.71</v>
       </c>
       <c r="H100" s="1" t="s">
@@ -3143,7 +3156,7 @@
       <c r="F101" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G101" s="1" t="n">
+      <c r="G101" s="2" t="n">
         <v>3977.77</v>
       </c>
       <c r="H101" s="1" t="s">
@@ -3172,7 +3185,7 @@
       <c r="F102" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G102" s="1" t="n">
+      <c r="G102" s="2" t="n">
         <v>3654.14</v>
       </c>
       <c r="H102" s="1" t="s">
@@ -3201,7 +3214,7 @@
       <c r="F103" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G103" s="1" t="n">
+      <c r="G103" s="2" t="n">
         <v>3477.09</v>
       </c>
       <c r="H103" s="1" t="s">
@@ -3230,7 +3243,7 @@
       <c r="F104" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G104" s="1" t="n">
+      <c r="G104" s="2" t="n">
         <v>6650.66</v>
       </c>
       <c r="H104" s="1" t="s">
@@ -3259,7 +3272,7 @@
       <c r="F105" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G105" s="1" t="n">
+      <c r="G105" s="2" t="n">
         <v>7505.23</v>
       </c>
       <c r="H105" s="1" t="s">
@@ -3288,7 +3301,7 @@
       <c r="F106" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G106" s="1" t="n">
+      <c r="G106" s="2" t="n">
         <v>7193.09</v>
       </c>
       <c r="H106" s="1" t="s">
@@ -3317,7 +3330,7 @@
       <c r="F107" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G107" s="1" t="n">
+      <c r="G107" s="2" t="n">
         <v>6048.62</v>
       </c>
       <c r="H107" s="1" t="s">
@@ -3346,7 +3359,7 @@
       <c r="F108" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G108" s="1" t="n">
+      <c r="G108" s="2" t="n">
         <v>5971.38</v>
       </c>
       <c r="H108" s="1" t="s">
@@ -3375,7 +3388,7 @@
       <c r="F109" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G109" s="1" t="n">
+      <c r="G109" s="2" t="n">
         <v>6901.88</v>
       </c>
       <c r="H109" s="1" t="s">
@@ -3404,7 +3417,7 @@
       <c r="F110" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G110" s="1" t="n">
+      <c r="G110" s="2" t="n">
         <v>7454.17</v>
       </c>
       <c r="H110" s="1" t="s">
@@ -3433,7 +3446,7 @@
       <c r="F111" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G111" s="1" t="n">
+      <c r="G111" s="2" t="n">
         <v>8482.74</v>
       </c>
       <c r="H111" s="1" t="s">
@@ -3462,7 +3475,7 @@
       <c r="F112" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G112" s="1" t="n">
+      <c r="G112" s="2" t="n">
         <v>13479.32</v>
       </c>
       <c r="H112" s="1" t="s">
@@ -3491,7 +3504,7 @@
       <c r="F113" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G113" s="1" t="n">
+      <c r="G113" s="2" t="n">
         <v>16314.75</v>
       </c>
       <c r="H113" s="1" t="s">
@@ -3520,7 +3533,7 @@
       <c r="F114" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G114" s="1" t="n">
+      <c r="G114" s="2" t="n">
         <v>5260.15</v>
       </c>
       <c r="H114" s="1" t="s">
@@ -3549,7 +3562,7 @@
       <c r="F115" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G115" s="1" t="n">
+      <c r="G115" s="2" t="n">
         <v>3638.77</v>
       </c>
       <c r="H115" s="1" t="s">
@@ -3578,7 +3591,7 @@
       <c r="F116" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G116" s="1" t="n">
+      <c r="G116" s="2" t="n">
         <v>3235.85</v>
       </c>
       <c r="H116" s="1" t="s">
@@ -3607,7 +3620,7 @@
       <c r="F117" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G117" s="1" t="n">
+      <c r="G117" s="2" t="n">
         <v>2672.31</v>
       </c>
       <c r="H117" s="1" t="s">
@@ -3636,7 +3649,7 @@
       <c r="F118" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G118" s="1" t="n">
+      <c r="G118" s="2" t="n">
         <v>2784.46</v>
       </c>
       <c r="H118" s="1" t="s">
@@ -3665,7 +3678,7 @@
       <c r="F119" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G119" s="1" t="n">
+      <c r="G119" s="2" t="n">
         <v>3011.54</v>
       </c>
       <c r="H119" s="1" t="s">
@@ -3694,7 +3707,7 @@
       <c r="F120" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G120" s="1" t="n">
+      <c r="G120" s="2" t="n">
         <v>3264.92</v>
       </c>
       <c r="H120" s="1" t="s">
@@ -3723,7 +3736,7 @@
       <c r="F121" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G121" s="1" t="n">
+      <c r="G121" s="2" t="n">
         <v>3641.54</v>
       </c>
       <c r="H121" s="1" t="s">
@@ -3752,7 +3765,7 @@
       <c r="F122" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G122" s="1" t="n">
+      <c r="G122" s="2" t="n">
         <v>3994.62</v>
       </c>
       <c r="H122" s="1" t="s">
@@ -3781,7 +3794,7 @@
       <c r="F123" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G123" s="1" t="n">
+      <c r="G123" s="2" t="n">
         <v>4764.46</v>
       </c>
       <c r="H123" s="1" t="s">
@@ -3810,7 +3823,7 @@
       <c r="F124" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G124" s="1" t="n">
+      <c r="G124" s="2" t="n">
         <v>5802.92</v>
       </c>
       <c r="H124" s="1" t="s">
@@ -3839,7 +3852,7 @@
       <c r="F125" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G125" s="1" t="n">
+      <c r="G125" s="2" t="n">
         <v>6531.23</v>
       </c>
       <c r="H125" s="1" t="s">
@@ -3868,7 +3881,7 @@
       <c r="F126" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G126" s="1" t="n">
+      <c r="G126" s="2" t="n">
         <v>9887.54</v>
       </c>
       <c r="H126" s="1" t="s">
@@ -3897,7 +3910,7 @@
       <c r="F127" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G127" s="1" t="n">
+      <c r="G127" s="2" t="n">
         <v>14586.92</v>
       </c>
       <c r="H127" s="1" t="s">
@@ -3926,7 +3939,7 @@
       <c r="F128" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G128" s="1" t="n">
+      <c r="G128" s="2" t="n">
         <v>5260.15</v>
       </c>
       <c r="H128" s="1" t="s">
@@ -3955,7 +3968,7 @@
       <c r="F129" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G129" s="1" t="n">
+      <c r="G129" s="2" t="n">
         <v>3638.77</v>
       </c>
       <c r="H129" s="1" t="s">
@@ -3984,7 +3997,7 @@
       <c r="F130" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G130" s="1" t="n">
+      <c r="G130" s="2" t="n">
         <v>3235.85</v>
       </c>
       <c r="H130" s="1" t="s">
@@ -4013,7 +4026,7 @@
       <c r="F131" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G131" s="1" t="n">
+      <c r="G131" s="2" t="n">
         <v>3094.62</v>
       </c>
       <c r="H131" s="1" t="s">
@@ -4042,7 +4055,7 @@
       <c r="F132" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G132" s="1" t="n">
+      <c r="G132" s="2" t="n">
         <v>5913.69</v>
       </c>
       <c r="H132" s="1" t="s">
@@ -4071,7 +4084,7 @@
       <c r="F133" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G133" s="1" t="n">
+      <c r="G133" s="2" t="n">
         <v>6661.38</v>
       </c>
       <c r="H133" s="1" t="s">
@@ -4100,7 +4113,7 @@
       <c r="F134" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G134" s="1" t="n">
+      <c r="G134" s="2" t="n">
         <v>6370.62</v>
       </c>
       <c r="H134" s="1" t="s">
@@ -4129,7 +4142,7 @@
       <c r="F135" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G135" s="1" t="n">
+      <c r="G135" s="2" t="n">
         <v>5387.54</v>
       </c>
       <c r="H135" s="1" t="s">
@@ -4158,7 +4171,7 @@
       <c r="F136" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G136" s="1" t="n">
+      <c r="G136" s="2" t="n">
         <v>5334.92</v>
       </c>
       <c r="H136" s="1" t="s">
@@ -4187,7 +4200,7 @@
       <c r="F137" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G137" s="1" t="n">
+      <c r="G137" s="2" t="n">
         <v>6153.23</v>
       </c>
       <c r="H137" s="1" t="s">
@@ -4216,7 +4229,7 @@
       <c r="F138" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G138" s="1" t="n">
+      <c r="G138" s="2" t="n">
         <v>6697.38</v>
       </c>
       <c r="H138" s="1" t="s">
@@ -4245,7 +4258,7 @@
       <c r="F139" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G139" s="1" t="n">
+      <c r="G139" s="2" t="n">
         <v>7627.85</v>
       </c>
       <c r="H139" s="1" t="s">
@@ -4274,7 +4287,7 @@
       <c r="F140" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G140" s="1" t="n">
+      <c r="G140" s="2" t="n">
         <v>12138.92</v>
       </c>
       <c r="H140" s="1" t="s">
@@ -4303,7 +4316,7 @@
       <c r="F141" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G141" s="1" t="n">
+      <c r="G141" s="2" t="n">
         <v>14586.92</v>
       </c>
       <c r="H141" s="1" t="s">
@@ -4332,7 +4345,7 @@
       <c r="F142" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G142" s="1" t="n">
+      <c r="G142" s="2" t="n">
         <v>3121.46</v>
       </c>
       <c r="H142" s="1" t="s">
@@ -4361,7 +4374,7 @@
       <c r="F143" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G143" s="1" t="n">
+      <c r="G143" s="2" t="n">
         <v>2172.89</v>
       </c>
       <c r="H143" s="1" t="s">
@@ -4390,7 +4403,7 @@
       <c r="F144" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G144" s="1" t="n">
+      <c r="G144" s="2" t="n">
         <v>1943.06</v>
       </c>
       <c r="H144" s="1" t="s">
@@ -4419,7 +4432,7 @@
       <c r="F145" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G145" s="1" t="n">
+      <c r="G145" s="2" t="n">
         <v>1598.33</v>
       </c>
       <c r="H145" s="1" t="s">
@@ -4448,7 +4461,7 @@
       <c r="F146" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G146" s="1" t="n">
+      <c r="G146" s="2" t="n">
         <v>1665.09</v>
       </c>
       <c r="H146" s="1" t="s">
@@ -4477,7 +4490,7 @@
       <c r="F147" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G147" s="1" t="n">
+      <c r="G147" s="2" t="n">
         <v>1800.24</v>
       </c>
       <c r="H147" s="1" t="s">
@@ -4506,7 +4519,7 @@
       <c r="F148" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G148" s="1" t="n">
+      <c r="G148" s="2" t="n">
         <v>1951.97</v>
       </c>
       <c r="H148" s="1" t="s">
@@ -4535,7 +4548,7 @@
       <c r="F149" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G149" s="1" t="n">
+      <c r="G149" s="2" t="n">
         <v>2172.43</v>
       </c>
       <c r="H149" s="1" t="s">
@@ -4564,7 +4577,7 @@
       <c r="F150" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G150" s="1" t="n">
+      <c r="G150" s="2" t="n">
         <v>2378.89</v>
       </c>
       <c r="H150" s="1" t="s">
@@ -4593,7 +4606,7 @@
       <c r="F151" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G151" s="1" t="n">
+      <c r="G151" s="2" t="n">
         <v>2831.62</v>
       </c>
       <c r="H151" s="1" t="s">
@@ -4622,7 +4635,7 @@
       <c r="F152" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G152" s="1" t="n">
+      <c r="G152" s="2" t="n">
         <v>3441.62</v>
       </c>
       <c r="H152" s="1" t="s">
@@ -4651,7 +4664,7 @@
       <c r="F153" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G153" s="1" t="n">
+      <c r="G153" s="2" t="n">
         <v>3866.72</v>
       </c>
       <c r="H153" s="1" t="s">
@@ -4680,7 +4693,7 @@
       <c r="F154" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G154" s="1" t="n">
+      <c r="G154" s="2" t="n">
         <v>5840.25</v>
       </c>
       <c r="H154" s="1" t="s">
@@ -4709,7 +4722,7 @@
       <c r="F155" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G155" s="1" t="n">
+      <c r="G155" s="2" t="n">
         <v>8643.12</v>
       </c>
       <c r="H155" s="1" t="s">
@@ -4738,7 +4751,7 @@
       <c r="F156" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G156" s="1" t="n">
+      <c r="G156" s="2" t="n">
         <v>3121.46</v>
       </c>
       <c r="H156" s="1" t="s">
@@ -4767,7 +4780,7 @@
       <c r="F157" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G157" s="1" t="n">
+      <c r="G157" s="2" t="n">
         <v>2172.89</v>
       </c>
       <c r="H157" s="1" t="s">
@@ -4796,7 +4809,7 @@
       <c r="F158" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G158" s="1" t="n">
+      <c r="G158" s="2" t="n">
         <v>1943.06</v>
       </c>
       <c r="H158" s="1" t="s">
@@ -4825,7 +4838,7 @@
       <c r="F159" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G159" s="1" t="n">
+      <c r="G159" s="2" t="n">
         <v>1851.55</v>
       </c>
       <c r="H159" s="1" t="s">
@@ -4854,7 +4867,7 @@
       <c r="F160" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G160" s="1" t="n">
+      <c r="G160" s="2" t="n">
         <v>3537.17</v>
       </c>
       <c r="H160" s="1" t="s">
@@ -4883,7 +4896,7 @@
       <c r="F161" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G161" s="1" t="n">
+      <c r="G161" s="2" t="n">
         <v>3981.5</v>
       </c>
       <c r="H161" s="1" t="s">
@@ -4912,7 +4925,7 @@
       <c r="F162" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G162" s="1" t="n">
+      <c r="G162" s="2" t="n">
         <v>3808.9</v>
       </c>
       <c r="H162" s="1" t="s">
@@ -4941,7 +4954,7 @@
       <c r="F163" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G163" s="1" t="n">
+      <c r="G163" s="2" t="n">
         <v>3213.91</v>
       </c>
       <c r="H163" s="1" t="s">
@@ -4970,7 +4983,7 @@
       <c r="F164" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G164" s="1" t="n">
+      <c r="G164" s="2" t="n">
         <v>3178.05</v>
       </c>
       <c r="H164" s="1" t="s">
@@ -4999,7 +5012,7 @@
       <c r="F165" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G165" s="1" t="n">
+      <c r="G165" s="2" t="n">
         <v>3656.76</v>
       </c>
       <c r="H165" s="1" t="s">
@@ -5028,7 +5041,7 @@
       <c r="F166" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G166" s="1" t="n">
+      <c r="G166" s="2" t="n">
         <v>3972.97</v>
       </c>
       <c r="H166" s="1" t="s">
@@ -5057,7 +5070,7 @@
       <c r="F167" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G167" s="1" t="n">
+      <c r="G167" s="2" t="n">
         <v>4515.39</v>
       </c>
       <c r="H167" s="1" t="s">
@@ -5086,7 +5099,7 @@
       <c r="F168" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G168" s="1" t="n">
+      <c r="G168" s="2" t="n">
         <v>7170.5</v>
       </c>
       <c r="H168" s="1" t="s">
@@ -5115,7 +5128,7 @@
       <c r="F169" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G169" s="1" t="n">
+      <c r="G169" s="2" t="n">
         <v>8643.12</v>
       </c>
       <c r="H169" s="1" t="s">
@@ -5144,10 +5157,10 @@
       <c r="F170" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G170" s="1" t="n">
+      <c r="G170" s="2" t="n">
         <v>10195.04</v>
       </c>
-      <c r="H170" s="2" t="s">
+      <c r="H170" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I170" s="1" t="s">
@@ -5173,10 +5186,10 @@
       <c r="F171" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G171" s="1" t="n">
+      <c r="G171" s="2" t="n">
         <v>7012.99</v>
       </c>
-      <c r="H171" s="2" t="s">
+      <c r="H171" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I171" s="1" t="s">
@@ -5202,10 +5215,10 @@
       <c r="F172" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G172" s="1" t="n">
+      <c r="G172" s="2" t="n">
         <v>6540.72</v>
       </c>
-      <c r="H172" s="2" t="s">
+      <c r="H172" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I172" s="1" t="s">
@@ -5231,10 +5244,10 @@
       <c r="F173" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G173" s="1" t="n">
+      <c r="G173" s="2" t="n">
         <v>5555.64</v>
       </c>
-      <c r="H173" s="2" t="s">
+      <c r="H173" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I173" s="1" t="s">
@@ -5260,10 +5273,10 @@
       <c r="F174" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G174" s="1" t="n">
+      <c r="G174" s="2" t="n">
         <v>5591.6</v>
       </c>
-      <c r="H174" s="2" t="s">
+      <c r="H174" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I174" s="1" t="s">
@@ -5289,10 +5302,10 @@
       <c r="F175" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G175" s="1" t="n">
+      <c r="G175" s="2" t="n">
         <v>6056.05</v>
       </c>
-      <c r="H175" s="2" t="s">
+      <c r="H175" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I175" s="1" t="s">
@@ -5318,10 +5331,10 @@
       <c r="F176" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G176" s="1" t="n">
+      <c r="G176" s="2" t="n">
         <v>6579.74</v>
       </c>
-      <c r="H176" s="2" t="s">
+      <c r="H176" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I176" s="1" t="s">
@@ -5347,10 +5360,10 @@
       <c r="F177" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G177" s="1" t="n">
+      <c r="G177" s="2" t="n">
         <v>7320.31</v>
       </c>
-      <c r="H177" s="2" t="s">
+      <c r="H177" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I177" s="1" t="s">
@@ -5376,10 +5389,10 @@
       <c r="F178" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G178" s="1" t="n">
+      <c r="G178" s="2" t="n">
         <v>8019.18</v>
       </c>
-      <c r="H178" s="2" t="s">
+      <c r="H178" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I178" s="1" t="s">
@@ -5405,10 +5418,10 @@
       <c r="F179" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G179" s="1" t="n">
+      <c r="G179" s="2" t="n">
         <v>9542.41</v>
       </c>
-      <c r="H179" s="2" t="s">
+      <c r="H179" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I179" s="1" t="s">
@@ -5434,10 +5447,10 @@
       <c r="F180" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G180" s="1" t="n">
+      <c r="G180" s="2" t="n">
         <v>11597.15</v>
       </c>
-      <c r="H180" s="2" t="s">
+      <c r="H180" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I180" s="1" t="s">
@@ -5463,10 +5476,10 @@
       <c r="F181" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G181" s="1" t="n">
+      <c r="G181" s="2" t="n">
         <v>13020.14</v>
       </c>
-      <c r="H181" s="2" t="s">
+      <c r="H181" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I181" s="1" t="s">
@@ -5492,10 +5505,10 @@
       <c r="F182" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G182" s="1" t="n">
+      <c r="G182" s="2" t="n">
         <v>19684.97</v>
       </c>
-      <c r="H182" s="2" t="s">
+      <c r="H182" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I182" s="1" t="s">
@@ -5521,10 +5534,10 @@
       <c r="F183" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G183" s="1" t="n">
+      <c r="G183" s="2" t="n">
         <v>29165.35</v>
       </c>
-      <c r="H183" s="2" t="s">
+      <c r="H183" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I183" s="1" t="s">
@@ -5550,10 +5563,10 @@
       <c r="F184" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G184" s="1" t="n">
+      <c r="G184" s="2" t="n">
         <v>10195.04</v>
       </c>
-      <c r="H184" s="2" t="s">
+      <c r="H184" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I184" s="1" t="s">
@@ -5579,10 +5592,10 @@
       <c r="F185" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G185" s="1" t="n">
+      <c r="G185" s="2" t="n">
         <v>7012.99</v>
       </c>
-      <c r="H185" s="2" t="s">
+      <c r="H185" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I185" s="1" t="s">
@@ -5608,10 +5621,10 @@
       <c r="F186" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G186" s="1" t="n">
+      <c r="G186" s="2" t="n">
         <v>6540.72</v>
       </c>
-      <c r="H186" s="2" t="s">
+      <c r="H186" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I186" s="1" t="s">
@@ -5637,10 +5650,10 @@
       <c r="F187" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G187" s="1" t="n">
+      <c r="G187" s="2" t="n">
         <v>6242.43</v>
       </c>
-      <c r="H187" s="2" t="s">
+      <c r="H187" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I187" s="1" t="s">
@@ -5666,10 +5679,10 @@
       <c r="F188" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G188" s="1" t="n">
+      <c r="G188" s="2" t="n">
         <v>11937.03</v>
       </c>
-      <c r="H188" s="2" t="s">
+      <c r="H188" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I188" s="1" t="s">
@@ -5695,10 +5708,10 @@
       <c r="F189" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G189" s="1" t="n">
+      <c r="G189" s="2" t="n">
         <v>13403.94</v>
       </c>
-      <c r="H189" s="2" t="s">
+      <c r="H189" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I189" s="1" t="s">
@@ -5724,10 +5737,10 @@
       <c r="F190" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G190" s="1" t="n">
+      <c r="G190" s="2" t="n">
         <v>12784.12</v>
       </c>
-      <c r="H190" s="2" t="s">
+      <c r="H190" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I190" s="1" t="s">
@@ -5753,10 +5766,10 @@
       <c r="F191" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G191" s="1" t="n">
+      <c r="G191" s="2" t="n">
         <v>10824.33</v>
       </c>
-      <c r="H191" s="2" t="s">
+      <c r="H191" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I191" s="1" t="s">
@@ -5782,10 +5795,10 @@
       <c r="F192" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G192" s="1" t="n">
+      <c r="G192" s="2" t="n">
         <v>10728.27</v>
       </c>
-      <c r="H192" s="2" t="s">
+      <c r="H192" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I192" s="1" t="s">
@@ -5811,10 +5824,10 @@
       <c r="F193" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G193" s="1" t="n">
+      <c r="G193" s="2" t="n">
         <v>12383.27</v>
       </c>
-      <c r="H193" s="2" t="s">
+      <c r="H193" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I193" s="1" t="s">
@@ -5840,10 +5853,10 @@
       <c r="F194" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G194" s="1" t="n">
+      <c r="G194" s="2" t="n">
         <v>13464.97</v>
       </c>
-      <c r="H194" s="2" t="s">
+      <c r="H194" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I194" s="1" t="s">
@@ -5869,10 +5882,10 @@
       <c r="F195" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G195" s="1" t="n">
+      <c r="G195" s="2" t="n">
         <v>15291.66</v>
       </c>
-      <c r="H195" s="2" t="s">
+      <c r="H195" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I195" s="1" t="s">
@@ -5898,10 +5911,10 @@
       <c r="F196" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G196" s="1" t="n">
+      <c r="G196" s="2" t="n">
         <v>24319.13</v>
       </c>
-      <c r="H196" s="2" t="s">
+      <c r="H196" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I196" s="1" t="s">
@@ -5927,10 +5940,10 @@
       <c r="F197" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G197" s="1" t="n">
+      <c r="G197" s="2" t="n">
         <v>29165.35</v>
       </c>
-      <c r="H197" s="2" t="s">
+      <c r="H197" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I197" s="1" t="s">
@@ -5956,10 +5969,10 @@
       <c r="F198" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G198" s="1" t="n">
+      <c r="G198" s="2" t="n">
         <v>9092.12</v>
       </c>
-      <c r="H198" s="2" t="s">
+      <c r="H198" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I198" s="1" t="s">
@@ -5985,10 +5998,10 @@
       <c r="F199" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G199" s="1" t="n">
+      <c r="G199" s="2" t="n">
         <v>6223.96</v>
       </c>
-      <c r="H199" s="2" t="s">
+      <c r="H199" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I199" s="1" t="s">
@@ -6014,10 +6027,10 @@
       <c r="F200" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G200" s="1" t="n">
+      <c r="G200" s="2" t="n">
         <v>5792.63</v>
       </c>
-      <c r="H200" s="2" t="s">
+      <c r="H200" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I200" s="1" t="s">
@@ -6043,10 +6056,10 @@
       <c r="F201" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G201" s="1" t="n">
+      <c r="G201" s="2" t="n">
         <v>4759.85</v>
       </c>
-      <c r="H201" s="2" t="s">
+      <c r="H201" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I201" s="1" t="s">
@@ -6072,10 +6085,10 @@
       <c r="F202" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G202" s="1" t="n">
+      <c r="G202" s="2" t="n">
         <v>5047.79</v>
       </c>
-      <c r="H202" s="2" t="s">
+      <c r="H202" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I202" s="1" t="s">
@@ -6101,10 +6114,10 @@
       <c r="F203" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G203" s="1" t="n">
+      <c r="G203" s="2" t="n">
         <v>5457.85</v>
       </c>
-      <c r="H203" s="2" t="s">
+      <c r="H203" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I203" s="1" t="s">
@@ -6130,10 +6143,10 @@
       <c r="F204" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G204" s="1" t="n">
+      <c r="G204" s="2" t="n">
         <v>5916.93</v>
       </c>
-      <c r="H204" s="2" t="s">
+      <c r="H204" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I204" s="1" t="s">
@@ -6159,10 +6172,10 @@
       <c r="F205" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G205" s="1" t="n">
+      <c r="G205" s="2" t="n">
         <v>6595.35</v>
       </c>
-      <c r="H205" s="2" t="s">
+      <c r="H205" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I205" s="1" t="s">
@@ -6188,10 +6201,10 @@
       <c r="F206" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G206" s="1" t="n">
+      <c r="G206" s="2" t="n">
         <v>7225.91</v>
       </c>
-      <c r="H206" s="2" t="s">
+      <c r="H206" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I206" s="1" t="s">
@@ -6217,10 +6230,10 @@
       <c r="F207" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G207" s="1" t="n">
+      <c r="G207" s="2" t="n">
         <v>8616.85</v>
       </c>
-      <c r="H207" s="2" t="s">
+      <c r="H207" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I207" s="1" t="s">
@@ -6246,10 +6259,10 @@
       <c r="F208" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G208" s="1" t="n">
+      <c r="G208" s="2" t="n">
         <v>10492</v>
       </c>
-      <c r="H208" s="2" t="s">
+      <c r="H208" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I208" s="1" t="s">
@@ -6275,10 +6288,10 @@
       <c r="F209" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G209" s="1" t="n">
+      <c r="G209" s="2" t="n">
         <v>11788.68</v>
       </c>
-      <c r="H209" s="2" t="s">
+      <c r="H209" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I209" s="1" t="s">
@@ -6304,10 +6317,10 @@
       <c r="F210" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G210" s="1" t="n">
+      <c r="G210" s="2" t="n">
         <v>17851.66</v>
       </c>
-      <c r="H210" s="2" t="s">
+      <c r="H210" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I210" s="1" t="s">
@@ -6333,10 +6346,10 @@
       <c r="F211" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G211" s="1" t="n">
+      <c r="G211" s="2" t="n">
         <v>26428.18</v>
       </c>
-      <c r="H211" s="2" t="s">
+      <c r="H211" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I211" s="1" t="s">
@@ -6362,10 +6375,10 @@
       <c r="F212" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G212" s="1" t="n">
+      <c r="G212" s="2" t="n">
         <v>9092.12</v>
       </c>
-      <c r="H212" s="2" t="s">
+      <c r="H212" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I212" s="1" t="s">
@@ -6391,10 +6404,10 @@
       <c r="F213" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G213" s="1" t="n">
+      <c r="G213" s="2" t="n">
         <v>6223.96</v>
       </c>
-      <c r="H213" s="2" t="s">
+      <c r="H213" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I213" s="1" t="s">
@@ -6420,10 +6433,10 @@
       <c r="F214" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G214" s="1" t="n">
+      <c r="G214" s="2" t="n">
         <v>5792.63</v>
       </c>
-      <c r="H214" s="2" t="s">
+      <c r="H214" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I214" s="1" t="s">
@@ -6449,10 +6462,10 @@
       <c r="F215" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G215" s="1" t="n">
+      <c r="G215" s="2" t="n">
         <v>5512.71</v>
       </c>
-      <c r="H215" s="2" t="s">
+      <c r="H215" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I215" s="1" t="s">
@@ -6478,10 +6491,10 @@
       <c r="F216" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G216" s="1" t="n">
+      <c r="G216" s="2" t="n">
         <v>10712.79</v>
       </c>
-      <c r="H216" s="2" t="s">
+      <c r="H216" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I216" s="1" t="s">
@@ -6507,10 +6520,10 @@
       <c r="F217" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G217" s="1" t="n">
+      <c r="G217" s="2" t="n">
         <v>12085.23</v>
       </c>
-      <c r="H217" s="2" t="s">
+      <c r="H217" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I217" s="1" t="s">
@@ -6536,10 +6549,10 @@
       <c r="F218" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G218" s="1" t="n">
+      <c r="G218" s="2" t="n">
         <v>11580.15</v>
       </c>
-      <c r="H218" s="2" t="s">
+      <c r="H218" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I218" s="1" t="s">
@@ -6565,10 +6578,10 @@
       <c r="F219" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G219" s="1" t="n">
+      <c r="G219" s="2" t="n">
         <v>9738.43</v>
       </c>
-      <c r="H219" s="2" t="s">
+      <c r="H219" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I219" s="1" t="s">
@@ -6594,10 +6607,10 @@
       <c r="F220" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G220" s="1" t="n">
+      <c r="G220" s="2" t="n">
         <v>9614.95</v>
       </c>
-      <c r="H220" s="2" t="s">
+      <c r="H220" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I220" s="1" t="s">
@@ -6623,10 +6636,10 @@
       <c r="F221" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G221" s="1" t="n">
+      <c r="G221" s="2" t="n">
         <v>11052.24</v>
       </c>
-      <c r="H221" s="2" t="s">
+      <c r="H221" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I221" s="1" t="s">
@@ -6652,10 +6665,10 @@
       <c r="F222" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G222" s="1" t="n">
+      <c r="G222" s="2" t="n">
         <v>12008.29</v>
       </c>
-      <c r="H222" s="2" t="s">
+      <c r="H222" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I222" s="1" t="s">
@@ -6681,10 +6694,10 @@
       <c r="F223" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G223" s="1" t="n">
+      <c r="G223" s="2" t="n">
         <v>13663.2</v>
       </c>
-      <c r="H223" s="2" t="s">
+      <c r="H223" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I223" s="1" t="s">
@@ -6710,10 +6723,10 @@
       <c r="F224" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G224" s="1" t="n">
+      <c r="G224" s="2" t="n">
         <v>21720.02</v>
       </c>
-      <c r="H224" s="2" t="s">
+      <c r="H224" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I224" s="1" t="s">
@@ -6739,10 +6752,10 @@
       <c r="F225" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G225" s="1" t="n">
+      <c r="G225" s="2" t="n">
         <v>26279.71</v>
       </c>
-      <c r="H225" s="2" t="s">
+      <c r="H225" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I225" s="1" t="s">
@@ -6768,10 +6781,10 @@
       <c r="F226" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G226" s="1" t="n">
+      <c r="G226" s="2" t="n">
         <v>6940.04</v>
       </c>
-      <c r="H226" s="2" t="s">
+      <c r="H226" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I226" s="1" t="s">
@@ -6797,10 +6810,10 @@
       <c r="F227" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G227" s="1" t="n">
+      <c r="G227" s="2" t="n">
         <v>4785.08</v>
       </c>
-      <c r="H227" s="2" t="s">
+      <c r="H227" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I227" s="1" t="s">
@@ -6826,10 +6839,10 @@
       <c r="F228" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G228" s="1" t="n">
+      <c r="G228" s="2" t="n">
         <v>4428.42</v>
       </c>
-      <c r="H228" s="2" t="s">
+      <c r="H228" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I228" s="1" t="s">
@@ -6855,10 +6868,10 @@
       <c r="F229" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G229" s="1" t="n">
+      <c r="G229" s="2" t="n">
         <v>3636.09</v>
       </c>
-      <c r="H229" s="2" t="s">
+      <c r="H229" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I229" s="1" t="s">
@@ -6884,10 +6897,10 @@
       <c r="F230" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G230" s="1" t="n">
+      <c r="G230" s="2" t="n">
         <v>3877.58</v>
       </c>
-      <c r="H230" s="2" t="s">
+      <c r="H230" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I230" s="1" t="s">
@@ -6913,10 +6926,10 @@
       <c r="F231" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G231" s="1" t="n">
+      <c r="G231" s="2" t="n">
         <v>4198.4</v>
       </c>
-      <c r="H231" s="2" t="s">
+      <c r="H231" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I231" s="1" t="s">
@@ -6942,10 +6955,10 @@
       <c r="F232" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G232" s="1" t="n">
+      <c r="G232" s="2" t="n">
         <v>4559.88</v>
       </c>
-      <c r="H232" s="2" t="s">
+      <c r="H232" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I232" s="1" t="s">
@@ -6971,10 +6984,10 @@
       <c r="F233" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G233" s="1" t="n">
+      <c r="G233" s="2" t="n">
         <v>5073.34</v>
       </c>
-      <c r="H233" s="2" t="s">
+      <c r="H233" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I233" s="1" t="s">
@@ -7000,10 +7013,10 @@
       <c r="F234" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G234" s="1" t="n">
+      <c r="G234" s="2" t="n">
         <v>5552.78</v>
       </c>
-      <c r="H234" s="2" t="s">
+      <c r="H234" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I234" s="1" t="s">
@@ -7029,10 +7042,10 @@
       <c r="F235" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G235" s="1" t="n">
+      <c r="G235" s="2" t="n">
         <v>6607.74</v>
       </c>
-      <c r="H235" s="2" t="s">
+      <c r="H235" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I235" s="1" t="s">
@@ -7058,10 +7071,10 @@
       <c r="F236" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G236" s="1" t="n">
+      <c r="G236" s="2" t="n">
         <v>8034.79</v>
       </c>
-      <c r="H236" s="2" t="s">
+      <c r="H236" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I236" s="1" t="s">
@@ -7087,10 +7100,10 @@
       <c r="F237" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G237" s="1" t="n">
+      <c r="G237" s="2" t="n">
         <v>9014.6</v>
       </c>
-      <c r="H237" s="2" t="s">
+      <c r="H237" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I237" s="1" t="s">
@@ -7116,10 +7129,10 @@
       <c r="F238" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G238" s="1" t="n">
+      <c r="G238" s="2" t="n">
         <v>13633.58</v>
       </c>
-      <c r="H238" s="2" t="s">
+      <c r="H238" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I238" s="1" t="s">
@@ -7145,10 +7158,10 @@
       <c r="F239" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G239" s="1" t="n">
+      <c r="G239" s="2" t="n">
         <v>20185.07</v>
       </c>
-      <c r="H239" s="2" t="s">
+      <c r="H239" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I239" s="1" t="s">
@@ -7174,10 +7187,10 @@
       <c r="F240" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G240" s="1" t="n">
+      <c r="G240" s="2" t="n">
         <v>6940.04</v>
       </c>
-      <c r="H240" s="2" t="s">
+      <c r="H240" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I240" s="1" t="s">
@@ -7203,10 +7216,10 @@
       <c r="F241" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G241" s="1" t="n">
+      <c r="G241" s="2" t="n">
         <v>4785.08</v>
       </c>
-      <c r="H241" s="2" t="s">
+      <c r="H241" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I241" s="1" t="s">
@@ -7232,10 +7245,10 @@
       <c r="F242" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G242" s="1" t="n">
+      <c r="G242" s="2" t="n">
         <v>4428.42</v>
       </c>
-      <c r="H242" s="2" t="s">
+      <c r="H242" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I242" s="1" t="s">
@@ -7261,10 +7274,10 @@
       <c r="F243" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G243" s="1" t="n">
+      <c r="G243" s="2" t="n">
         <v>4225.39</v>
       </c>
-      <c r="H243" s="2" t="s">
+      <c r="H243" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I243" s="1" t="s">
@@ -7290,10 +7303,10 @@
       <c r="F244" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G244" s="1" t="n">
+      <c r="G244" s="2" t="n">
         <v>8219.87</v>
       </c>
-      <c r="H244" s="2" t="s">
+      <c r="H244" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I244" s="1" t="s">
@@ -7319,10 +7332,10 @@
       <c r="F245" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G245" s="1" t="n">
+      <c r="G245" s="2" t="n">
         <v>9231.75</v>
       </c>
-      <c r="H245" s="2" t="s">
+      <c r="H245" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I245" s="1" t="s">
@@ -7348,10 +7361,10 @@
       <c r="F246" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G246" s="1" t="n">
+      <c r="G246" s="2" t="n">
         <v>8811.03</v>
       </c>
-      <c r="H246" s="2" t="s">
+      <c r="H246" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I246" s="1" t="s">
@@ -7377,10 +7390,10 @@
       <c r="F247" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G247" s="1" t="n">
+      <c r="G247" s="2" t="n">
         <v>7454.69</v>
       </c>
-      <c r="H247" s="2" t="s">
+      <c r="H247" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I247" s="1" t="s">
@@ -7406,10 +7419,10 @@
       <c r="F248" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G248" s="1" t="n">
+      <c r="G248" s="2" t="n">
         <v>7384.29</v>
       </c>
-      <c r="H248" s="2" t="s">
+      <c r="H248" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I248" s="1" t="s">
@@ -7435,10 +7448,10 @@
       <c r="F249" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G249" s="1" t="n">
+      <c r="G249" s="2" t="n">
         <v>8517.31</v>
       </c>
-      <c r="H249" s="2" t="s">
+      <c r="H249" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I249" s="1" t="s">
@@ -7464,10 +7477,10 @@
       <c r="F250" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G250" s="1" t="n">
+      <c r="G250" s="2" t="n">
         <v>9260.04</v>
       </c>
-      <c r="H250" s="2" t="s">
+      <c r="H250" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I250" s="1" t="s">
@@ -7493,10 +7506,10 @@
       <c r="F251" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G251" s="1" t="n">
+      <c r="G251" s="2" t="n">
         <v>10515.54</v>
       </c>
-      <c r="H251" s="2" t="s">
+      <c r="H251" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I251" s="1" t="s">
@@ -7522,10 +7535,10 @@
       <c r="F252" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G252" s="1" t="n">
+      <c r="G252" s="2" t="n">
         <v>16719.05</v>
       </c>
-      <c r="H252" s="2" t="s">
+      <c r="H252" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I252" s="1" t="s">
@@ -7551,10 +7564,10 @@
       <c r="F253" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G253" s="1" t="n">
+      <c r="G253" s="2" t="n">
         <v>20071.03</v>
       </c>
-      <c r="H253" s="2" t="s">
+      <c r="H253" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I253" s="1" t="s">
@@ -7580,10 +7593,10 @@
       <c r="F254" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G254" s="1" t="n">
+      <c r="G254" s="2" t="n">
         <v>5356.21</v>
       </c>
-      <c r="H254" s="2" t="s">
+      <c r="H254" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I254" s="1" t="s">
@@ -7609,10 +7622,10 @@
       <c r="F255" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G255" s="1" t="n">
+      <c r="G255" s="2" t="n">
         <v>3683.12</v>
       </c>
-      <c r="H255" s="2" t="s">
+      <c r="H255" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I255" s="1" t="s">
@@ -7638,10 +7651,10 @@
       <c r="F256" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G256" s="1" t="n">
+      <c r="G256" s="2" t="n">
         <v>3383.47</v>
       </c>
-      <c r="H256" s="2" t="s">
+      <c r="H256" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I256" s="1" t="s">
@@ -7667,10 +7680,10 @@
       <c r="F257" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G257" s="1" t="n">
+      <c r="G257" s="2" t="n">
         <v>2781.75</v>
       </c>
-      <c r="H257" s="2" t="s">
+      <c r="H257" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I257" s="1" t="s">
@@ -7696,10 +7709,10 @@
       <c r="F258" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G258" s="1" t="n">
+      <c r="G258" s="2" t="n">
         <v>2941.34</v>
       </c>
-      <c r="H258" s="2" t="s">
+      <c r="H258" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I258" s="1" t="s">
@@ -7725,10 +7738,10 @@
       <c r="F259" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G259" s="1" t="n">
+      <c r="G259" s="2" t="n">
         <v>3179.21</v>
       </c>
-      <c r="H259" s="2" t="s">
+      <c r="H259" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I259" s="1" t="s">
@@ -7754,10 +7767,10 @@
       <c r="F260" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G260" s="1" t="n">
+      <c r="G260" s="2" t="n">
         <v>3445.38</v>
       </c>
-      <c r="H260" s="2" t="s">
+      <c r="H260" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I260" s="1" t="s">
@@ -7783,10 +7796,10 @@
       <c r="F261" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G261" s="1" t="n">
+      <c r="G261" s="2" t="n">
         <v>3839.95</v>
       </c>
-      <c r="H261" s="2" t="s">
+      <c r="H261" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I261" s="1" t="s">
@@ -7812,10 +7825,10 @@
       <c r="F262" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G262" s="1" t="n">
+      <c r="G262" s="2" t="n">
         <v>4206.61</v>
       </c>
-      <c r="H262" s="2" t="s">
+      <c r="H262" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I262" s="1" t="s">
@@ -7841,10 +7854,10 @@
       <c r="F263" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G263" s="1" t="n">
+      <c r="G263" s="2" t="n">
         <v>5015.51</v>
       </c>
-      <c r="H263" s="2" t="s">
+      <c r="H263" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I263" s="1" t="s">
@@ -7870,10 +7883,10 @@
       <c r="F264" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G264" s="1" t="n">
+      <c r="G264" s="2" t="n">
         <v>6105.59</v>
       </c>
-      <c r="H264" s="2" t="s">
+      <c r="H264" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I264" s="1" t="s">
@@ -7899,10 +7912,10 @@
       <c r="F265" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G265" s="1" t="n">
+      <c r="G265" s="2" t="n">
         <v>6866.07</v>
       </c>
-      <c r="H265" s="2" t="s">
+      <c r="H265" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I265" s="1" t="s">
@@ -7928,10 +7941,10 @@
       <c r="F266" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G266" s="1" t="n">
+      <c r="G266" s="2" t="n">
         <v>10384.6</v>
       </c>
-      <c r="H266" s="2" t="s">
+      <c r="H266" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I266" s="1" t="s">
@@ -7957,10 +7970,10 @@
       <c r="F267" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G267" s="1" t="n">
+      <c r="G267" s="2" t="n">
         <v>15370.07</v>
       </c>
-      <c r="H267" s="2" t="s">
+      <c r="H267" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I267" s="1" t="s">
@@ -7986,10 +7999,10 @@
       <c r="F268" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G268" s="1" t="n">
+      <c r="G268" s="2" t="n">
         <v>5356.21</v>
       </c>
-      <c r="H268" s="2" t="s">
+      <c r="H268" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I268" s="1" t="s">
@@ -8015,10 +8028,10 @@
       <c r="F269" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G269" s="1" t="n">
+      <c r="G269" s="2" t="n">
         <v>3683.12</v>
       </c>
-      <c r="H269" s="2" t="s">
+      <c r="H269" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I269" s="1" t="s">
@@ -8044,10 +8057,10 @@
       <c r="F270" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G270" s="1" t="n">
+      <c r="G270" s="2" t="n">
         <v>3383.47</v>
       </c>
-      <c r="H270" s="2" t="s">
+      <c r="H270" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I270" s="1" t="s">
@@ -8073,10 +8086,10 @@
       <c r="F271" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G271" s="1" t="n">
+      <c r="G271" s="2" t="n">
         <v>3219.53</v>
       </c>
-      <c r="H271" s="2" t="s">
+      <c r="H271" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I271" s="1" t="s">
@@ -8102,10 +8115,10 @@
       <c r="F272" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G272" s="1" t="n">
+      <c r="G272" s="2" t="n">
         <v>6158.02</v>
       </c>
-      <c r="H272" s="2" t="s">
+      <c r="H272" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I272" s="1" t="s">
@@ -8131,10 +8144,10 @@
       <c r="F273" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G273" s="1" t="n">
+      <c r="G273" s="2" t="n">
         <v>6949.29</v>
       </c>
-      <c r="H273" s="2" t="s">
+      <c r="H273" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I273" s="1" t="s">
@@ -8160,10 +8173,10 @@
       <c r="F274" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G274" s="1" t="n">
+      <c r="G274" s="2" t="n">
         <v>6660.26</v>
       </c>
-      <c r="H274" s="2" t="s">
+      <c r="H274" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I274" s="1" t="s">
@@ -8189,10 +8202,10 @@
       <c r="F275" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G275" s="1" t="n">
+      <c r="G275" s="2" t="n">
         <v>5600.57</v>
       </c>
-      <c r="H275" s="2" t="s">
+      <c r="H275" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I275" s="1" t="s">
@@ -8218,10 +8231,10 @@
       <c r="F276" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G276" s="1" t="n">
+      <c r="G276" s="2" t="n">
         <v>5529.05</v>
       </c>
-      <c r="H276" s="2" t="s">
+      <c r="H276" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I276" s="1" t="s">
@@ -8247,10 +8260,10 @@
       <c r="F277" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G277" s="1" t="n">
+      <c r="G277" s="2" t="n">
         <v>6390.63</v>
       </c>
-      <c r="H277" s="2" t="s">
+      <c r="H277" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I277" s="1" t="s">
@@ -8276,10 +8289,10 @@
       <c r="F278" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G278" s="1" t="n">
+      <c r="G278" s="2" t="n">
         <v>6902.01</v>
       </c>
-      <c r="H278" s="2" t="s">
+      <c r="H278" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I278" s="1" t="s">
@@ -8305,10 +8318,10 @@
       <c r="F279" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G279" s="1" t="n">
+      <c r="G279" s="2" t="n">
         <v>7854.39</v>
       </c>
-      <c r="H279" s="2" t="s">
+      <c r="H279" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I279" s="1" t="s">
@@ -8334,10 +8347,10 @@
       <c r="F280" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G280" s="1" t="n">
+      <c r="G280" s="2" t="n">
         <v>12480.86</v>
       </c>
-      <c r="H280" s="2" t="s">
+      <c r="H280" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I280" s="1" t="s">
@@ -8363,10 +8376,10 @@
       <c r="F281" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G281" s="1" t="n">
+      <c r="G281" s="2" t="n">
         <v>15106.25</v>
       </c>
-      <c r="H281" s="2" t="s">
+      <c r="H281" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I281" s="1" t="s">
@@ -8392,10 +8405,10 @@
       <c r="F282" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G282" s="1" t="n">
+      <c r="G282" s="2" t="n">
         <v>4870.51</v>
       </c>
-      <c r="H282" s="2" t="s">
+      <c r="H282" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I282" s="1" t="s">
@@ -8421,10 +8434,10 @@
       <c r="F283" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G283" s="1" t="n">
+      <c r="G283" s="2" t="n">
         <v>3369.23</v>
       </c>
-      <c r="H283" s="2" t="s">
+      <c r="H283" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I283" s="1" t="s">
@@ -8450,10 +8463,10 @@
       <c r="F284" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G284" s="1" t="n">
+      <c r="G284" s="2" t="n">
         <v>2996.15</v>
       </c>
-      <c r="H284" s="2" t="s">
+      <c r="H284" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I284" s="1" t="s">
@@ -8479,10 +8492,10 @@
       <c r="F285" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G285" s="1" t="n">
+      <c r="G285" s="2" t="n">
         <v>2474.36</v>
       </c>
-      <c r="H285" s="2" t="s">
+      <c r="H285" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I285" s="1" t="s">
@@ -8508,10 +8521,10 @@
       <c r="F286" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G286" s="1" t="n">
+      <c r="G286" s="2" t="n">
         <v>2578.21</v>
       </c>
-      <c r="H286" s="2" t="s">
+      <c r="H286" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I286" s="1" t="s">
@@ -8537,10 +8550,10 @@
       <c r="F287" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G287" s="1" t="n">
+      <c r="G287" s="2" t="n">
         <v>2788.46</v>
       </c>
-      <c r="H287" s="2" t="s">
+      <c r="H287" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I287" s="1" t="s">
@@ -8566,10 +8579,10 @@
       <c r="F288" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G288" s="1" t="n">
+      <c r="G288" s="2" t="n">
         <v>3023.08</v>
       </c>
-      <c r="H288" s="2" t="s">
+      <c r="H288" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I288" s="1" t="s">
@@ -8595,10 +8608,10 @@
       <c r="F289" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G289" s="1" t="n">
+      <c r="G289" s="2" t="n">
         <v>3371.79</v>
       </c>
-      <c r="H289" s="2" t="s">
+      <c r="H289" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I289" s="1" t="s">
@@ -8624,10 +8637,10 @@
       <c r="F290" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G290" s="1" t="n">
+      <c r="G290" s="2" t="n">
         <v>3698.72</v>
       </c>
-      <c r="H290" s="2" t="s">
+      <c r="H290" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I290" s="1" t="s">
@@ -8653,10 +8666,10 @@
       <c r="F291" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G291" s="1" t="n">
+      <c r="G291" s="2" t="n">
         <v>4411.54</v>
       </c>
-      <c r="H291" s="2" t="s">
+      <c r="H291" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I291" s="1" t="s">
@@ -8682,10 +8695,10 @@
       <c r="F292" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G292" s="1" t="n">
+      <c r="G292" s="2" t="n">
         <v>5373.08</v>
       </c>
-      <c r="H292" s="2" t="s">
+      <c r="H292" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I292" s="1" t="s">
@@ -8711,10 +8724,10 @@
       <c r="F293" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G293" s="1" t="n">
+      <c r="G293" s="2" t="n">
         <v>6047.44</v>
       </c>
-      <c r="H293" s="2" t="s">
+      <c r="H293" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I293" s="1" t="s">
@@ -8740,10 +8753,10 @@
       <c r="F294" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G294" s="1" t="n">
+      <c r="G294" s="2" t="n">
         <v>9155.13</v>
       </c>
-      <c r="H294" s="2" t="s">
+      <c r="H294" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I294" s="1" t="s">
@@ -8769,10 +8782,10 @@
       <c r="F295" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G295" s="1" t="n">
+      <c r="G295" s="2" t="n">
         <v>13506.41</v>
       </c>
-      <c r="H295" s="2" t="s">
+      <c r="H295" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I295" s="1" t="s">
@@ -8798,10 +8811,10 @@
       <c r="F296" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G296" s="1" t="n">
+      <c r="G296" s="2" t="n">
         <v>4870.51</v>
       </c>
-      <c r="H296" s="2" t="s">
+      <c r="H296" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I296" s="1" t="s">
@@ -8827,10 +8840,10 @@
       <c r="F297" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G297" s="1" t="n">
+      <c r="G297" s="2" t="n">
         <v>3369.23</v>
       </c>
-      <c r="H297" s="2" t="s">
+      <c r="H297" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I297" s="1" t="s">
@@ -8856,10 +8869,10 @@
       <c r="F298" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G298" s="1" t="n">
+      <c r="G298" s="2" t="n">
         <v>2996.15</v>
       </c>
-      <c r="H298" s="2" t="s">
+      <c r="H298" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I298" s="1" t="s">
@@ -8885,10 +8898,10 @@
       <c r="F299" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G299" s="1" t="n">
+      <c r="G299" s="2" t="n">
         <v>2865.38</v>
       </c>
-      <c r="H299" s="2" t="s">
+      <c r="H299" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I299" s="1" t="s">
@@ -8914,10 +8927,10 @@
       <c r="F300" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G300" s="1" t="n">
+      <c r="G300" s="2" t="n">
         <v>5475.64</v>
       </c>
-      <c r="H300" s="2" t="s">
+      <c r="H300" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I300" s="1" t="s">
@@ -8943,10 +8956,10 @@
       <c r="F301" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G301" s="1" t="n">
+      <c r="G301" s="2" t="n">
         <v>6167.95</v>
       </c>
-      <c r="H301" s="2" t="s">
+      <c r="H301" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I301" s="1" t="s">
@@ -8972,10 +8985,10 @@
       <c r="F302" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G302" s="1" t="n">
+      <c r="G302" s="2" t="n">
         <v>5898.72</v>
       </c>
-      <c r="H302" s="2" t="s">
+      <c r="H302" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I302" s="1" t="s">
@@ -9001,10 +9014,10 @@
       <c r="F303" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G303" s="1" t="n">
+      <c r="G303" s="2" t="n">
         <v>4988.46</v>
       </c>
-      <c r="H303" s="2" t="s">
+      <c r="H303" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I303" s="1" t="s">
@@ -9030,10 +9043,10 @@
       <c r="F304" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G304" s="1" t="n">
+      <c r="G304" s="2" t="n">
         <v>4939.74</v>
       </c>
-      <c r="H304" s="2" t="s">
+      <c r="H304" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I304" s="1" t="s">
@@ -9059,10 +9072,10 @@
       <c r="F305" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G305" s="1" t="n">
+      <c r="G305" s="2" t="n">
         <v>5697.44</v>
       </c>
-      <c r="H305" s="2" t="s">
+      <c r="H305" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I305" s="1" t="s">
@@ -9088,10 +9101,10 @@
       <c r="F306" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G306" s="1" t="n">
+      <c r="G306" s="2" t="n">
         <v>6201.28</v>
       </c>
-      <c r="H306" s="2" t="s">
+      <c r="H306" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I306" s="1" t="s">
@@ -9117,10 +9130,10 @@
       <c r="F307" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G307" s="1" t="n">
+      <c r="G307" s="2" t="n">
         <v>7062.82</v>
       </c>
-      <c r="H307" s="2" t="s">
+      <c r="H307" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I307" s="1" t="s">
@@ -9146,10 +9159,10 @@
       <c r="F308" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G308" s="1" t="n">
+      <c r="G308" s="2" t="n">
         <v>11239.74</v>
       </c>
-      <c r="H308" s="2" t="s">
+      <c r="H308" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I308" s="1" t="s">
@@ -9175,10 +9188,10 @@
       <c r="F309" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G309" s="1" t="n">
+      <c r="G309" s="2" t="n">
         <v>13506.41</v>
       </c>
-      <c r="H309" s="2" t="s">
+      <c r="H309" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I309" s="1" t="s">
@@ -9204,10 +9217,10 @@
       <c r="F310" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G310" s="1" t="n">
+      <c r="G310" s="2" t="n">
         <v>2890.24</v>
       </c>
-      <c r="H310" s="2" t="s">
+      <c r="H310" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I310" s="1" t="s">
@@ -9233,10 +9246,10 @@
       <c r="F311" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G311" s="1" t="n">
+      <c r="G311" s="2" t="n">
         <v>2011.94</v>
       </c>
-      <c r="H311" s="2" t="s">
+      <c r="H311" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I311" s="1" t="s">
@@ -9262,10 +9275,10 @@
       <c r="F312" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G312" s="1" t="n">
+      <c r="G312" s="2" t="n">
         <v>1799.13</v>
       </c>
-      <c r="H312" s="2" t="s">
+      <c r="H312" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I312" s="1" t="s">
@@ -9291,10 +9304,10 @@
       <c r="F313" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G313" s="1" t="n">
+      <c r="G313" s="2" t="n">
         <v>1479.93</v>
       </c>
-      <c r="H313" s="2" t="s">
+      <c r="H313" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I313" s="1" t="s">
@@ -9320,10 +9333,10 @@
       <c r="F314" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G314" s="1" t="n">
+      <c r="G314" s="2" t="n">
         <v>1541.75</v>
       </c>
-      <c r="H314" s="2" t="s">
+      <c r="H314" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I314" s="1" t="s">
@@ -9349,10 +9362,10 @@
       <c r="F315" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G315" s="1" t="n">
+      <c r="G315" s="2" t="n">
         <v>1666.89</v>
       </c>
-      <c r="H315" s="2" t="s">
+      <c r="H315" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I315" s="1" t="s">
@@ -9378,10 +9391,10 @@
       <c r="F316" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G316" s="1" t="n">
+      <c r="G316" s="2" t="n">
         <v>1807.38</v>
       </c>
-      <c r="H316" s="2" t="s">
+      <c r="H316" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I316" s="1" t="s">
@@ -9407,10 +9420,10 @@
       <c r="F317" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G317" s="1" t="n">
+      <c r="G317" s="2" t="n">
         <v>2011.51</v>
       </c>
-      <c r="H317" s="2" t="s">
+      <c r="H317" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I317" s="1" t="s">
@@ -9436,10 +9449,10 @@
       <c r="F318" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G318" s="1" t="n">
+      <c r="G318" s="2" t="n">
         <v>2202.68</v>
       </c>
-      <c r="H318" s="2" t="s">
+      <c r="H318" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I318" s="1" t="s">
@@ -9465,10 +9478,10 @@
       <c r="F319" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G319" s="1" t="n">
+      <c r="G319" s="2" t="n">
         <v>2621.87</v>
       </c>
-      <c r="H319" s="2" t="s">
+      <c r="H319" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I319" s="1" t="s">
@@ -9494,10 +9507,10 @@
       <c r="F320" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G320" s="1" t="n">
+      <c r="G320" s="2" t="n">
         <v>3186.69</v>
       </c>
-      <c r="H320" s="2" t="s">
+      <c r="H320" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I320" s="1" t="s">
@@ -9523,10 +9536,10 @@
       <c r="F321" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G321" s="1" t="n">
+      <c r="G321" s="2" t="n">
         <v>3580.29</v>
       </c>
-      <c r="H321" s="2" t="s">
+      <c r="H321" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I321" s="1" t="s">
@@ -9552,10 +9565,10 @@
       <c r="F322" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G322" s="1" t="n">
+      <c r="G322" s="2" t="n">
         <v>5407.64</v>
       </c>
-      <c r="H322" s="2" t="s">
+      <c r="H322" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I322" s="1" t="s">
@@ -9581,10 +9594,10 @@
       <c r="F323" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G323" s="1" t="n">
+      <c r="G323" s="2" t="n">
         <v>8002.89</v>
       </c>
-      <c r="H323" s="2" t="s">
+      <c r="H323" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I323" s="1" t="s">
@@ -9610,10 +9623,10 @@
       <c r="F324" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G324" s="1" t="n">
+      <c r="G324" s="2" t="n">
         <v>2890.24</v>
       </c>
-      <c r="H324" s="2" t="s">
+      <c r="H324" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I324" s="1" t="s">
@@ -9639,10 +9652,10 @@
       <c r="F325" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G325" s="1" t="n">
+      <c r="G325" s="2" t="n">
         <v>2011.94</v>
       </c>
-      <c r="H325" s="2" t="s">
+      <c r="H325" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I325" s="1" t="s">
@@ -9668,10 +9681,10 @@
       <c r="F326" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G326" s="1" t="n">
+      <c r="G326" s="2" t="n">
         <v>1799.13</v>
       </c>
-      <c r="H326" s="2" t="s">
+      <c r="H326" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I326" s="1" t="s">
@@ -9697,10 +9710,10 @@
       <c r="F327" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G327" s="1" t="n">
+      <c r="G327" s="2" t="n">
         <v>1714.4</v>
       </c>
-      <c r="H327" s="2" t="s">
+      <c r="H327" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I327" s="1" t="s">
@@ -9726,10 +9739,10 @@
       <c r="F328" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G328" s="1" t="n">
+      <c r="G328" s="2" t="n">
         <v>3275.16</v>
       </c>
-      <c r="H328" s="2" t="s">
+      <c r="H328" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I328" s="1" t="s">
@@ -9755,10 +9768,10 @@
       <c r="F329" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G329" s="1" t="n">
+      <c r="G329" s="2" t="n">
         <v>3686.57</v>
       </c>
-      <c r="H329" s="2" t="s">
+      <c r="H329" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I329" s="1" t="s">
@@ -9784,10 +9797,10 @@
       <c r="F330" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G330" s="1" t="n">
+      <c r="G330" s="2" t="n">
         <v>3526.76</v>
       </c>
-      <c r="H330" s="2" t="s">
+      <c r="H330" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I330" s="1" t="s">
@@ -9813,10 +9826,10 @@
       <c r="F331" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G331" s="1" t="n">
+      <c r="G331" s="2" t="n">
         <v>2975.84</v>
       </c>
-      <c r="H331" s="2" t="s">
+      <c r="H331" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I331" s="1" t="s">
@@ -9842,10 +9855,10 @@
       <c r="F332" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G332" s="1" t="n">
+      <c r="G332" s="2" t="n">
         <v>2942.64</v>
       </c>
-      <c r="H332" s="2" t="s">
+      <c r="H332" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I332" s="1" t="s">
@@ -9871,10 +9884,10 @@
       <c r="F333" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G333" s="1" t="n">
+      <c r="G333" s="2" t="n">
         <v>3385.89</v>
       </c>
-      <c r="H333" s="2" t="s">
+      <c r="H333" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I333" s="1" t="s">
@@ -9900,10 +9913,10 @@
       <c r="F334" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G334" s="1" t="n">
+      <c r="G334" s="2" t="n">
         <v>3678.68</v>
       </c>
-      <c r="H334" s="2" t="s">
+      <c r="H334" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I334" s="1" t="s">
@@ -9929,10 +9942,10 @@
       <c r="F335" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G335" s="1" t="n">
+      <c r="G335" s="2" t="n">
         <v>4180.91</v>
       </c>
-      <c r="H335" s="2" t="s">
+      <c r="H335" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I335" s="1" t="s">
@@ -9958,10 +9971,10 @@
       <c r="F336" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G336" s="1" t="n">
+      <c r="G336" s="2" t="n">
         <v>6639.35</v>
       </c>
-      <c r="H336" s="2" t="s">
+      <c r="H336" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I336" s="1" t="s">
@@ -9987,10 +10000,10 @@
       <c r="F337" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G337" s="1" t="n">
+      <c r="G337" s="2" t="n">
         <v>8002.89</v>
       </c>
-      <c r="H337" s="2" t="s">
+      <c r="H337" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I337" s="1" t="s">
@@ -10016,10 +10029,10 @@
       <c r="F338" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G338" s="1" t="n">
+      <c r="G338" s="2" t="n">
         <v>9685.29</v>
       </c>
-      <c r="H338" s="2" t="s">
+      <c r="H338" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I338" s="1" t="s">
@@ -10045,10 +10058,10 @@
       <c r="F339" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G339" s="1" t="n">
+      <c r="G339" s="2" t="n">
         <v>6662.34</v>
       </c>
-      <c r="H339" s="2" t="s">
+      <c r="H339" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I339" s="1" t="s">
@@ -10074,10 +10087,10 @@
       <c r="F340" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G340" s="1" t="n">
+      <c r="G340" s="2" t="n">
         <v>6213.68</v>
       </c>
-      <c r="H340" s="2" t="s">
+      <c r="H340" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I340" s="1" t="s">
@@ -10103,10 +10116,10 @@
       <c r="F341" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G341" s="1" t="n">
+      <c r="G341" s="2" t="n">
         <v>5277.85</v>
       </c>
-      <c r="H341" s="2" t="s">
+      <c r="H341" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I341" s="1" t="s">
@@ -10132,10 +10145,10 @@
       <c r="F342" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G342" s="1" t="n">
+      <c r="G342" s="2" t="n">
         <v>5312.02</v>
       </c>
-      <c r="H342" s="2" t="s">
+      <c r="H342" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I342" s="1" t="s">
@@ -10161,10 +10174,10 @@
       <c r="F343" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G343" s="1" t="n">
+      <c r="G343" s="2" t="n">
         <v>5753.25</v>
       </c>
-      <c r="H343" s="2" t="s">
+      <c r="H343" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I343" s="1" t="s">
@@ -10190,10 +10203,10 @@
       <c r="F344" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G344" s="1" t="n">
+      <c r="G344" s="2" t="n">
         <v>6250.75</v>
       </c>
-      <c r="H344" s="2" t="s">
+      <c r="H344" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I344" s="1" t="s">
@@ -10219,10 +10232,10 @@
       <c r="F345" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G345" s="1" t="n">
+      <c r="G345" s="2" t="n">
         <v>6954.29</v>
       </c>
-      <c r="H345" s="2" t="s">
+      <c r="H345" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I345" s="1" t="s">
@@ -10248,10 +10261,10 @@
       <c r="F346" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G346" s="1" t="n">
+      <c r="G346" s="2" t="n">
         <v>7618.23</v>
       </c>
-      <c r="H346" s="2" t="s">
+      <c r="H346" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I346" s="1" t="s">
@@ -10277,10 +10290,10 @@
       <c r="F347" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G347" s="1" t="n">
+      <c r="G347" s="2" t="n">
         <v>9065.28</v>
       </c>
-      <c r="H347" s="2" t="s">
+      <c r="H347" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I347" s="1" t="s">
@@ -10306,10 +10319,10 @@
       <c r="F348" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G348" s="1" t="n">
+      <c r="G348" s="2" t="n">
         <v>11017.29</v>
       </c>
-      <c r="H348" s="2" t="s">
+      <c r="H348" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I348" s="1" t="s">
@@ -10335,10 +10348,10 @@
       <c r="F349" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G349" s="1" t="n">
+      <c r="G349" s="2" t="n">
         <v>12369.14</v>
       </c>
-      <c r="H349" s="2" t="s">
+      <c r="H349" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I349" s="1" t="s">
@@ -10364,10 +10377,10 @@
       <c r="F350" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G350" s="1" t="n">
+      <c r="G350" s="2" t="n">
         <v>18700.72</v>
       </c>
-      <c r="H350" s="2" t="s">
+      <c r="H350" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I350" s="1" t="s">
@@ -10393,10 +10406,10 @@
       <c r="F351" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G351" s="1" t="n">
+      <c r="G351" s="2" t="n">
         <v>27707.08</v>
       </c>
-      <c r="H351" s="2" t="s">
+      <c r="H351" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I351" s="1" t="s">
@@ -10422,10 +10435,10 @@
       <c r="F352" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G352" s="1" t="n">
+      <c r="G352" s="2" t="n">
         <v>9685.29</v>
       </c>
-      <c r="H352" s="2" t="s">
+      <c r="H352" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I352" s="1" t="s">
@@ -10451,10 +10464,10 @@
       <c r="F353" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G353" s="1" t="n">
+      <c r="G353" s="2" t="n">
         <v>6662.34</v>
       </c>
-      <c r="H353" s="2" t="s">
+      <c r="H353" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I353" s="1" t="s">
@@ -10480,10 +10493,10 @@
       <c r="F354" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G354" s="1" t="n">
+      <c r="G354" s="2" t="n">
         <v>6213.68</v>
       </c>
-      <c r="H354" s="2" t="s">
+      <c r="H354" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I354" s="1" t="s">
@@ -10509,10 +10522,10 @@
       <c r="F355" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G355" s="1" t="n">
-        <v>5277.85</v>
-      </c>
-      <c r="H355" s="2" t="s">
+      <c r="G355" s="2" t="n">
+        <v>5930.31</v>
+      </c>
+      <c r="H355" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I355" s="1" t="s">
@@ -10538,10 +10551,10 @@
       <c r="F356" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G356" s="1" t="n">
-        <v>5312.02</v>
-      </c>
-      <c r="H356" s="2" t="s">
+      <c r="G356" s="2" t="n">
+        <v>11340.18</v>
+      </c>
+      <c r="H356" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I356" s="1" t="s">
@@ -10567,10 +10580,10 @@
       <c r="F357" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G357" s="1" t="n">
-        <v>5753.25</v>
-      </c>
-      <c r="H357" s="2" t="s">
+      <c r="G357" s="2" t="n">
+        <v>12733.74</v>
+      </c>
+      <c r="H357" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I357" s="1" t="s">
@@ -10596,10 +10609,10 @@
       <c r="F358" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G358" s="1" t="n">
-        <v>6250.75</v>
-      </c>
-      <c r="H358" s="2" t="s">
+      <c r="G358" s="2" t="n">
+        <v>12144.91</v>
+      </c>
+      <c r="H358" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I358" s="1" t="s">
@@ -10625,10 +10638,10 @@
       <c r="F359" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G359" s="1" t="n">
-        <v>6954.29</v>
-      </c>
-      <c r="H359" s="2" t="s">
+      <c r="G359" s="2" t="n">
+        <v>10283.11</v>
+      </c>
+      <c r="H359" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I359" s="1" t="s">
@@ -10654,10 +10667,10 @@
       <c r="F360" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G360" s="1" t="n">
-        <v>7618.23</v>
-      </c>
-      <c r="H360" s="2" t="s">
+      <c r="G360" s="2" t="n">
+        <v>10191.85</v>
+      </c>
+      <c r="H360" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I360" s="1" t="s">
@@ -10683,10 +10696,10 @@
       <c r="F361" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G361" s="1" t="n">
-        <v>9065.28</v>
-      </c>
-      <c r="H361" s="2" t="s">
+      <c r="G361" s="2" t="n">
+        <v>11764.11</v>
+      </c>
+      <c r="H361" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I361" s="1" t="s">
@@ -10712,10 +10725,10 @@
       <c r="F362" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G362" s="1" t="n">
-        <v>11017.29</v>
-      </c>
-      <c r="H362" s="2" t="s">
+      <c r="G362" s="2" t="n">
+        <v>12791.73</v>
+      </c>
+      <c r="H362" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I362" s="1" t="s">
@@ -10741,10 +10754,10 @@
       <c r="F363" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G363" s="1" t="n">
-        <v>12369.14</v>
-      </c>
-      <c r="H363" s="2" t="s">
+      <c r="G363" s="2" t="n">
+        <v>14527.08</v>
+      </c>
+      <c r="H363" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I363" s="1" t="s">
@@ -10770,10 +10783,10 @@
       <c r="F364" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G364" s="1" t="n">
-        <v>18700.72</v>
-      </c>
-      <c r="H364" s="2" t="s">
+      <c r="G364" s="2" t="n">
+        <v>23103.17</v>
+      </c>
+      <c r="H364" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I364" s="1" t="s">
@@ -10799,10 +10812,10 @@
       <c r="F365" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G365" s="1" t="n">
+      <c r="G365" s="2" t="n">
         <v>27707.08</v>
       </c>
-      <c r="H365" s="2" t="s">
+      <c r="H365" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I365" s="1" t="s">
@@ -10828,10 +10841,10 @@
       <c r="F366" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G366" s="1" t="n">
+      <c r="G366" s="2" t="n">
         <v>8637.52</v>
       </c>
-      <c r="H366" s="2" t="s">
+      <c r="H366" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I366" s="1" t="s">
@@ -10857,10 +10870,10 @@
       <c r="F367" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G367" s="1" t="n">
+      <c r="G367" s="2" t="n">
         <v>5912.76</v>
       </c>
-      <c r="H367" s="2" t="s">
+      <c r="H367" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I367" s="1" t="s">
@@ -10886,10 +10899,10 @@
       <c r="F368" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G368" s="1" t="n">
+      <c r="G368" s="2" t="n">
         <v>5503</v>
       </c>
-      <c r="H368" s="2" t="s">
+      <c r="H368" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I368" s="1" t="s">
@@ -10915,10 +10928,10 @@
       <c r="F369" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G369" s="1" t="n">
+      <c r="G369" s="2" t="n">
         <v>4521.86</v>
       </c>
-      <c r="H369" s="2" t="s">
+      <c r="H369" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I369" s="1" t="s">
@@ -10944,10 +10957,10 @@
       <c r="F370" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G370" s="1" t="n">
+      <c r="G370" s="2" t="n">
         <v>4795.4</v>
       </c>
-      <c r="H370" s="2" t="s">
+      <c r="H370" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I370" s="1" t="s">
@@ -10973,10 +10986,10 @@
       <c r="F371" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G371" s="1" t="n">
+      <c r="G371" s="2" t="n">
         <v>5184.96</v>
       </c>
-      <c r="H371" s="2" t="s">
+      <c r="H371" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I371" s="1" t="s">
@@ -11002,10 +11015,10 @@
       <c r="F372" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G372" s="1" t="n">
+      <c r="G372" s="2" t="n">
         <v>5621.08</v>
       </c>
-      <c r="H372" s="2" t="s">
+      <c r="H372" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I372" s="1" t="s">
@@ -11031,10 +11044,10 @@
       <c r="F373" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G373" s="1" t="n">
+      <c r="G373" s="2" t="n">
         <v>6265.59</v>
       </c>
-      <c r="H373" s="2" t="s">
+      <c r="H373" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I373" s="1" t="s">
@@ -11060,10 +11073,10 @@
       <c r="F374" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G374" s="1" t="n">
+      <c r="G374" s="2" t="n">
         <v>6864.62</v>
       </c>
-      <c r="H374" s="2" t="s">
+      <c r="H374" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I374" s="1" t="s">
@@ -11089,10 +11102,10 @@
       <c r="F375" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G375" s="1" t="n">
+      <c r="G375" s="2" t="n">
         <v>8186.01</v>
       </c>
-      <c r="H375" s="2" t="s">
+      <c r="H375" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I375" s="1" t="s">
@@ -11118,10 +11131,10 @@
       <c r="F376" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G376" s="1" t="n">
+      <c r="G376" s="2" t="n">
         <v>9967.4</v>
       </c>
-      <c r="H376" s="2" t="s">
+      <c r="H376" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I376" s="1" t="s">
@@ -11147,10 +11160,10 @@
       <c r="F377" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G377" s="1" t="n">
+      <c r="G377" s="2" t="n">
         <v>11199.24</v>
       </c>
-      <c r="H377" s="2" t="s">
+      <c r="H377" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I377" s="1" t="s">
@@ -11176,10 +11189,10 @@
       <c r="F378" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G378" s="1" t="n">
+      <c r="G378" s="2" t="n">
         <v>16959.07</v>
       </c>
-      <c r="H378" s="2" t="s">
+      <c r="H378" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I378" s="1" t="s">
@@ -11205,10 +11218,10 @@
       <c r="F379" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G379" s="1" t="n">
+      <c r="G379" s="2" t="n">
         <v>25106.77</v>
       </c>
-      <c r="H379" s="2" t="s">
+      <c r="H379" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I379" s="1" t="s">
@@ -11234,10 +11247,10 @@
       <c r="F380" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G380" s="1" t="n">
+      <c r="G380" s="2" t="n">
         <v>8637.52</v>
       </c>
-      <c r="H380" s="2" t="s">
+      <c r="H380" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I380" s="1" t="s">
@@ -11263,10 +11276,10 @@
       <c r="F381" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G381" s="1" t="n">
+      <c r="G381" s="2" t="n">
         <v>5912.76</v>
       </c>
-      <c r="H381" s="2" t="s">
+      <c r="H381" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I381" s="1" t="s">
@@ -11292,10 +11305,10 @@
       <c r="F382" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G382" s="1" t="n">
+      <c r="G382" s="2" t="n">
         <v>5503</v>
       </c>
-      <c r="H382" s="2" t="s">
+      <c r="H382" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I382" s="1" t="s">
@@ -11321,10 +11334,10 @@
       <c r="F383" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G383" s="1" t="n">
+      <c r="G383" s="2" t="n">
         <v>5237.07</v>
       </c>
-      <c r="H383" s="2" t="s">
+      <c r="H383" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I383" s="1" t="s">
@@ -11350,10 +11363,10 @@
       <c r="F384" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G384" s="1" t="n">
+      <c r="G384" s="2" t="n">
         <v>10177.15</v>
       </c>
-      <c r="H384" s="2" t="s">
+      <c r="H384" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I384" s="1" t="s">
@@ -11379,10 +11392,10 @@
       <c r="F385" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G385" s="1" t="n">
+      <c r="G385" s="2" t="n">
         <v>11480.97</v>
       </c>
-      <c r="H385" s="2" t="s">
+      <c r="H385" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I385" s="1" t="s">
@@ -11408,10 +11421,10 @@
       <c r="F386" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G386" s="1" t="n">
+      <c r="G386" s="2" t="n">
         <v>11001.15</v>
       </c>
-      <c r="H386" s="2" t="s">
+      <c r="H386" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I386" s="1" t="s">
@@ -11437,10 +11450,10 @@
       <c r="F387" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G387" s="1" t="n">
+      <c r="G387" s="2" t="n">
         <v>9251.51</v>
       </c>
-      <c r="H387" s="2" t="s">
+      <c r="H387" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I387" s="1" t="s">
@@ -11466,10 +11479,10 @@
       <c r="F388" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G388" s="1" t="n">
+      <c r="G388" s="2" t="n">
         <v>9134.2</v>
       </c>
-      <c r="H388" s="2" t="s">
+      <c r="H388" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I388" s="1" t="s">
@@ -11495,10 +11508,10 @@
       <c r="F389" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G389" s="1" t="n">
+      <c r="G389" s="2" t="n">
         <v>10499.63</v>
       </c>
-      <c r="H389" s="2" t="s">
+      <c r="H389" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I389" s="1" t="s">
@@ -11524,10 +11537,10 @@
       <c r="F390" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G390" s="1" t="n">
+      <c r="G390" s="2" t="n">
         <v>11407.87</v>
       </c>
-      <c r="H390" s="2" t="s">
+      <c r="H390" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I390" s="1" t="s">
@@ -11553,10 +11566,10 @@
       <c r="F391" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G391" s="1" t="n">
+      <c r="G391" s="2" t="n">
         <v>12980.04</v>
       </c>
-      <c r="H391" s="2" t="s">
+      <c r="H391" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I391" s="1" t="s">
@@ -11582,10 +11595,10 @@
       <c r="F392" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G392" s="1" t="n">
+      <c r="G392" s="2" t="n">
         <v>20634.02</v>
       </c>
-      <c r="H392" s="2" t="s">
+      <c r="H392" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I392" s="1" t="s">
@@ -11611,10 +11624,10 @@
       <c r="F393" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G393" s="1" t="n">
+      <c r="G393" s="2" t="n">
         <v>24965.72</v>
       </c>
-      <c r="H393" s="2" t="s">
+      <c r="H393" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I393" s="1" t="s">
@@ -11640,10 +11653,10 @@
       <c r="F394" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G394" s="1" t="n">
+      <c r="G394" s="2" t="n">
         <v>6593.04</v>
       </c>
-      <c r="H394" s="2" t="s">
+      <c r="H394" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I394" s="1" t="s">
@@ -11669,10 +11682,10 @@
       <c r="F395" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G395" s="1" t="n">
+      <c r="G395" s="2" t="n">
         <v>4545.82</v>
       </c>
-      <c r="H395" s="2" t="s">
+      <c r="H395" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I395" s="1" t="s">
@@ -11698,10 +11711,10 @@
       <c r="F396" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G396" s="1" t="n">
+      <c r="G396" s="2" t="n">
         <v>4206.99</v>
       </c>
-      <c r="H396" s="2" t="s">
+      <c r="H396" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I396" s="1" t="s">
@@ -11727,10 +11740,10 @@
       <c r="F397" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G397" s="1" t="n">
+      <c r="G397" s="2" t="n">
         <v>3454.28</v>
       </c>
-      <c r="H397" s="2" t="s">
+      <c r="H397" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I397" s="1" t="s">
@@ -11756,10 +11769,10 @@
       <c r="F398" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G398" s="1" t="n">
+      <c r="G398" s="2" t="n">
         <v>3683.7</v>
       </c>
-      <c r="H398" s="2" t="s">
+      <c r="H398" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I398" s="1" t="s">
@@ -11785,10 +11798,10 @@
       <c r="F399" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G399" s="1" t="n">
+      <c r="G399" s="2" t="n">
         <v>3988.48</v>
       </c>
-      <c r="H399" s="2" t="s">
+      <c r="H399" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I399" s="1" t="s">
@@ -11814,10 +11827,10 @@
       <c r="F400" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G400" s="1" t="n">
+      <c r="G400" s="2" t="n">
         <v>4331.88</v>
       </c>
-      <c r="H400" s="2" t="s">
+      <c r="H400" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I400" s="1" t="s">
@@ -11843,10 +11856,10 @@
       <c r="F401" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G401" s="1" t="n">
+      <c r="G401" s="2" t="n">
         <v>4819.67</v>
       </c>
-      <c r="H401" s="2" t="s">
+      <c r="H401" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I401" s="1" t="s">
@@ -11872,10 +11885,10 @@
       <c r="F402" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G402" s="1" t="n">
+      <c r="G402" s="2" t="n">
         <v>5275.14</v>
       </c>
-      <c r="H402" s="2" t="s">
+      <c r="H402" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I402" s="1" t="s">
@@ -11901,10 +11914,10 @@
       <c r="F403" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G403" s="1" t="n">
+      <c r="G403" s="2" t="n">
         <v>6277.35</v>
       </c>
-      <c r="H403" s="2" t="s">
+      <c r="H403" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I403" s="1" t="s">
@@ -11930,10 +11943,10 @@
       <c r="F404" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G404" s="1" t="n">
+      <c r="G404" s="2" t="n">
         <v>7633.05</v>
       </c>
-      <c r="H404" s="2" t="s">
+      <c r="H404" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I404" s="1" t="s">
@@ -11959,10 +11972,10 @@
       <c r="F405" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G405" s="1" t="n">
+      <c r="G405" s="2" t="n">
         <v>8563.87</v>
       </c>
-      <c r="H405" s="2" t="s">
+      <c r="H405" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I405" s="1" t="s">
@@ -11988,10 +12001,10 @@
       <c r="F406" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G406" s="1" t="n">
+      <c r="G406" s="2" t="n">
         <v>12951.9</v>
       </c>
-      <c r="H406" s="2" t="s">
+      <c r="H406" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I406" s="1" t="s">
@@ -12017,10 +12030,10 @@
       <c r="F407" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G407" s="1" t="n">
+      <c r="G407" s="2" t="n">
         <v>19175.82</v>
       </c>
-      <c r="H407" s="2" t="s">
+      <c r="H407" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I407" s="1" t="s">
@@ -12046,10 +12059,10 @@
       <c r="F408" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G408" s="1" t="n">
+      <c r="G408" s="2" t="n">
         <v>6593.04</v>
       </c>
-      <c r="H408" s="2" t="s">
+      <c r="H408" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I408" s="1" t="s">
@@ -12075,10 +12088,10 @@
       <c r="F409" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G409" s="1" t="n">
+      <c r="G409" s="2" t="n">
         <v>4545.82</v>
       </c>
-      <c r="H409" s="2" t="s">
+      <c r="H409" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I409" s="1" t="s">
@@ -12104,10 +12117,10 @@
       <c r="F410" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G410" s="1" t="n">
+      <c r="G410" s="2" t="n">
         <v>4206.99</v>
       </c>
-      <c r="H410" s="2" t="s">
+      <c r="H410" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I410" s="1" t="s">
@@ -12133,10 +12146,10 @@
       <c r="F411" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G411" s="1" t="n">
+      <c r="G411" s="2" t="n">
         <v>4014.12</v>
       </c>
-      <c r="H411" s="2" t="s">
+      <c r="H411" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I411" s="1" t="s">
@@ -12162,10 +12175,10 @@
       <c r="F412" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G412" s="1" t="n">
+      <c r="G412" s="2" t="n">
         <v>7808.88</v>
       </c>
-      <c r="H412" s="2" t="s">
+      <c r="H412" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I412" s="1" t="s">
@@ -12191,10 +12204,10 @@
       <c r="F413" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G413" s="1" t="n">
+      <c r="G413" s="2" t="n">
         <v>8770.16</v>
       </c>
-      <c r="H413" s="2" t="s">
+      <c r="H413" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I413" s="1" t="s">
@@ -12220,10 +12233,10 @@
       <c r="F414" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G414" s="1" t="n">
+      <c r="G414" s="2" t="n">
         <v>8370.48</v>
       </c>
-      <c r="H414" s="2" t="s">
+      <c r="H414" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I414" s="1" t="s">
@@ -12249,10 +12262,10 @@
       <c r="F415" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G415" s="1" t="n">
+      <c r="G415" s="2" t="n">
         <v>7081.95</v>
       </c>
-      <c r="H415" s="2" t="s">
+      <c r="H415" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I415" s="1" t="s">
@@ -12278,10 +12291,10 @@
       <c r="F416" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G416" s="1" t="n">
+      <c r="G416" s="2" t="n">
         <v>7015.08</v>
       </c>
-      <c r="H416" s="2" t="s">
+      <c r="H416" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I416" s="1" t="s">
@@ -12307,10 +12320,10 @@
       <c r="F417" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G417" s="1" t="n">
+      <c r="G417" s="2" t="n">
         <v>8091.44</v>
       </c>
-      <c r="H417" s="2" t="s">
+      <c r="H417" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I417" s="1" t="s">
@@ -12336,10 +12349,10 @@
       <c r="F418" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G418" s="1" t="n">
+      <c r="G418" s="2" t="n">
         <v>8797.03</v>
       </c>
-      <c r="H418" s="2" t="s">
+      <c r="H418" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I418" s="1" t="s">
@@ -12365,10 +12378,10 @@
       <c r="F419" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G419" s="1" t="n">
+      <c r="G419" s="2" t="n">
         <v>9989.77</v>
       </c>
-      <c r="H419" s="2" t="s">
+      <c r="H419" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I419" s="1" t="s">
@@ -12394,10 +12407,10 @@
       <c r="F420" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G420" s="1" t="n">
+      <c r="G420" s="2" t="n">
         <v>15883.09</v>
       </c>
-      <c r="H420" s="2" t="s">
+      <c r="H420" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I420" s="1" t="s">
@@ -12423,10 +12436,10 @@
       <c r="F421" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G421" s="1" t="n">
+      <c r="G421" s="2" t="n">
         <v>19067.48</v>
       </c>
-      <c r="H421" s="2" t="s">
+      <c r="H421" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I421" s="1" t="s">
@@ -12452,10 +12465,10 @@
       <c r="F422" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G422" s="1" t="n">
+      <c r="G422" s="2" t="n">
         <v>5088.4</v>
       </c>
-      <c r="H422" s="2" t="s">
+      <c r="H422" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I422" s="1" t="s">
@@ -12481,10 +12494,10 @@
       <c r="F423" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G423" s="1" t="n">
+      <c r="G423" s="2" t="n">
         <v>3498.96</v>
       </c>
-      <c r="H423" s="2" t="s">
+      <c r="H423" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I423" s="1" t="s">
@@ -12510,10 +12523,10 @@
       <c r="F424" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G424" s="1" t="n">
+      <c r="G424" s="2" t="n">
         <v>3214.29</v>
       </c>
-      <c r="H424" s="2" t="s">
+      <c r="H424" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I424" s="1" t="s">
@@ -12539,10 +12552,10 @@
       <c r="F425" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G425" s="1" t="n">
+      <c r="G425" s="2" t="n">
         <v>2642.66</v>
       </c>
-      <c r="H425" s="2" t="s">
+      <c r="H425" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I425" s="1" t="s">
@@ -12568,10 +12581,10 @@
       <c r="F426" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G426" s="1" t="n">
+      <c r="G426" s="2" t="n">
         <v>2794.28</v>
       </c>
-      <c r="H426" s="2" t="s">
+      <c r="H426" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I426" s="1" t="s">
@@ -12597,10 +12610,10 @@
       <c r="F427" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G427" s="1" t="n">
+      <c r="G427" s="2" t="n">
         <v>3020.25</v>
       </c>
-      <c r="H427" s="2" t="s">
+      <c r="H427" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I427" s="1" t="s">
@@ -12626,10 +12639,10 @@
       <c r="F428" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G428" s="1" t="n">
+      <c r="G428" s="2" t="n">
         <v>3273.11</v>
       </c>
-      <c r="H428" s="2" t="s">
+      <c r="H428" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I428" s="1" t="s">
@@ -12655,10 +12668,10 @@
       <c r="F429" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G429" s="1" t="n">
+      <c r="G429" s="2" t="n">
         <v>3647.96</v>
       </c>
-      <c r="H429" s="2" t="s">
+      <c r="H429" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I429" s="1" t="s">
@@ -12684,10 +12697,10 @@
       <c r="F430" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G430" s="1" t="n">
+      <c r="G430" s="2" t="n">
         <v>3996.28</v>
       </c>
-      <c r="H430" s="2" t="s">
+      <c r="H430" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I430" s="1" t="s">
@@ -12713,10 +12726,10 @@
       <c r="F431" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G431" s="1" t="n">
+      <c r="G431" s="2" t="n">
         <v>4764.74</v>
       </c>
-      <c r="H431" s="2" t="s">
+      <c r="H431" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I431" s="1" t="s">
@@ -12742,10 +12755,10 @@
       <c r="F432" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G432" s="1" t="n">
+      <c r="G432" s="2" t="n">
         <v>5800.31</v>
       </c>
-      <c r="H432" s="2" t="s">
+      <c r="H432" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I432" s="1" t="s">
@@ -12771,10 +12784,10 @@
       <c r="F433" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G433" s="1" t="n">
+      <c r="G433" s="2" t="n">
         <v>6522.77</v>
       </c>
-      <c r="H433" s="2" t="s">
+      <c r="H433" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I433" s="1" t="s">
@@ -12800,10 +12813,10 @@
       <c r="F434" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G434" s="1" t="n">
+      <c r="G434" s="2" t="n">
         <v>9865.37</v>
       </c>
-      <c r="H434" s="2" t="s">
+      <c r="H434" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I434" s="1" t="s">
@@ -12829,10 +12842,10 @@
       <c r="F435" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G435" s="1" t="n">
+      <c r="G435" s="2" t="n">
         <v>14601.57</v>
       </c>
-      <c r="H435" s="2" t="s">
+      <c r="H435" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I435" s="1" t="s">
@@ -12858,10 +12871,10 @@
       <c r="F436" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G436" s="1" t="n">
+      <c r="G436" s="2" t="n">
         <v>5088.4</v>
       </c>
-      <c r="H436" s="2" t="s">
+      <c r="H436" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I436" s="1" t="s">
@@ -12887,10 +12900,10 @@
       <c r="F437" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G437" s="1" t="n">
+      <c r="G437" s="2" t="n">
         <v>3498.96</v>
       </c>
-      <c r="H437" s="2" t="s">
+      <c r="H437" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I437" s="1" t="s">
@@ -12916,10 +12929,10 @@
       <c r="F438" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G438" s="1" t="n">
+      <c r="G438" s="2" t="n">
         <v>3214.29</v>
       </c>
-      <c r="H438" s="2" t="s">
+      <c r="H438" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I438" s="1" t="s">
@@ -12945,10 +12958,10 @@
       <c r="F439" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G439" s="1" t="n">
+      <c r="G439" s="2" t="n">
         <v>3058.55</v>
       </c>
-      <c r="H439" s="2" t="s">
+      <c r="H439" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I439" s="1" t="s">
@@ -12974,10 +12987,10 @@
       <c r="F440" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G440" s="1" t="n">
+      <c r="G440" s="2" t="n">
         <v>5850.12</v>
       </c>
-      <c r="H440" s="2" t="s">
+      <c r="H440" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I440" s="1" t="s">
@@ -13003,10 +13016,10 @@
       <c r="F441" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G441" s="1" t="n">
+      <c r="G441" s="2" t="n">
         <v>6601.82</v>
       </c>
-      <c r="H441" s="2" t="s">
+      <c r="H441" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I441" s="1" t="s">
@@ -13032,10 +13045,10 @@
       <c r="F442" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G442" s="1" t="n">
+      <c r="G442" s="2" t="n">
         <v>6327.25</v>
       </c>
-      <c r="H442" s="2" t="s">
+      <c r="H442" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I442" s="1" t="s">
@@ -13061,10 +13074,10 @@
       <c r="F443" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G443" s="1" t="n">
+      <c r="G443" s="2" t="n">
         <v>5320.55</v>
       </c>
-      <c r="H443" s="2" t="s">
+      <c r="H443" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I443" s="1" t="s">
@@ -13090,10 +13103,10 @@
       <c r="F444" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G444" s="1" t="n">
+      <c r="G444" s="2" t="n">
         <v>5252.6</v>
       </c>
-      <c r="H444" s="2" t="s">
+      <c r="H444" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I444" s="1" t="s">
@@ -13119,10 +13132,10 @@
       <c r="F445" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G445" s="1" t="n">
+      <c r="G445" s="2" t="n">
         <v>6071.1</v>
       </c>
-      <c r="H445" s="2" t="s">
+      <c r="H445" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I445" s="1" t="s">
@@ -13148,10 +13161,10 @@
       <c r="F446" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G446" s="1" t="n">
+      <c r="G446" s="2" t="n">
         <v>6556.91</v>
       </c>
-      <c r="H446" s="2" t="s">
+      <c r="H446" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I446" s="1" t="s">
@@ -13177,10 +13190,10 @@
       <c r="F447" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G447" s="1" t="n">
+      <c r="G447" s="2" t="n">
         <v>7461.67</v>
       </c>
-      <c r="H447" s="2" t="s">
+      <c r="H447" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I447" s="1" t="s">
@@ -13206,10 +13219,10 @@
       <c r="F448" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G448" s="1" t="n">
+      <c r="G448" s="2" t="n">
         <v>11856.81</v>
       </c>
-      <c r="H448" s="2" t="s">
+      <c r="H448" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I448" s="1" t="s">
@@ -13235,10 +13248,10 @@
       <c r="F449" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G449" s="1" t="n">
+      <c r="G449" s="2" t="n">
         <v>14350.93</v>
       </c>
-      <c r="H449" s="2" t="s">
+      <c r="H449" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I449" s="1" t="s">
@@ -13264,10 +13277,10 @@
       <c r="F450" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G450" s="1" t="n">
+      <c r="G450" s="2" t="n">
         <v>4626.99</v>
       </c>
-      <c r="H450" s="2" t="s">
+      <c r="H450" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I450" s="1" t="s">
@@ -13293,10 +13306,10 @@
       <c r="F451" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G451" s="1" t="n">
+      <c r="G451" s="2" t="n">
         <v>3200.77</v>
       </c>
-      <c r="H451" s="2" t="s">
+      <c r="H451" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I451" s="1" t="s">
@@ -13322,10 +13335,10 @@
       <c r="F452" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G452" s="1" t="n">
+      <c r="G452" s="2" t="n">
         <v>2846.35</v>
       </c>
-      <c r="H452" s="2" t="s">
+      <c r="H452" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I452" s="1" t="s">
@@ -13351,10 +13364,10 @@
       <c r="F453" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G453" s="1" t="n">
+      <c r="G453" s="2" t="n">
         <v>2350.64</v>
       </c>
-      <c r="H453" s="2" t="s">
+      <c r="H453" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I453" s="1" t="s">
@@ -13380,10 +13393,10 @@
       <c r="F454" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G454" s="1" t="n">
+      <c r="G454" s="2" t="n">
         <v>2449.29</v>
       </c>
-      <c r="H454" s="2" t="s">
+      <c r="H454" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I454" s="1" t="s">
@@ -13409,10 +13422,10 @@
       <c r="F455" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G455" s="1" t="n">
+      <c r="G455" s="2" t="n">
         <v>2649.04</v>
       </c>
-      <c r="H455" s="2" t="s">
+      <c r="H455" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I455" s="1" t="s">
@@ -13438,10 +13451,10 @@
       <c r="F456" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G456" s="1" t="n">
+      <c r="G456" s="2" t="n">
         <v>2871.92</v>
       </c>
-      <c r="H456" s="2" t="s">
+      <c r="H456" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I456" s="1" t="s">
@@ -13467,10 +13480,10 @@
       <c r="F457" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G457" s="1" t="n">
+      <c r="G457" s="2" t="n">
         <v>3203.21</v>
       </c>
-      <c r="H457" s="2" t="s">
+      <c r="H457" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I457" s="1" t="s">
@@ -13496,10 +13509,10 @@
       <c r="F458" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G458" s="1" t="n">
+      <c r="G458" s="2" t="n">
         <v>3513.78</v>
       </c>
-      <c r="H458" s="2" t="s">
+      <c r="H458" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I458" s="1" t="s">
@@ -13525,10 +13538,10 @@
       <c r="F459" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G459" s="1" t="n">
+      <c r="G459" s="2" t="n">
         <v>4190.96</v>
       </c>
-      <c r="H459" s="2" t="s">
+      <c r="H459" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I459" s="1" t="s">
@@ -13554,10 +13567,10 @@
       <c r="F460" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G460" s="1" t="n">
+      <c r="G460" s="2" t="n">
         <v>5104.42</v>
       </c>
-      <c r="H460" s="2" t="s">
+      <c r="H460" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I460" s="1" t="s">
@@ -13583,10 +13596,10 @@
       <c r="F461" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G461" s="1" t="n">
+      <c r="G461" s="2" t="n">
         <v>5745.06</v>
       </c>
-      <c r="H461" s="2" t="s">
+      <c r="H461" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I461" s="1" t="s">
@@ -13612,10 +13625,10 @@
       <c r="F462" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G462" s="1" t="n">
+      <c r="G462" s="2" t="n">
         <v>8697.37</v>
       </c>
-      <c r="H462" s="2" t="s">
+      <c r="H462" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I462" s="1" t="s">
@@ -13641,10 +13654,10 @@
       <c r="F463" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G463" s="1" t="n">
+      <c r="G463" s="2" t="n">
         <v>12831.09</v>
       </c>
-      <c r="H463" s="2" t="s">
+      <c r="H463" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I463" s="1" t="s">
@@ -13670,10 +13683,10 @@
       <c r="F464" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G464" s="1" t="n">
+      <c r="G464" s="2" t="n">
         <v>4626.99</v>
       </c>
-      <c r="H464" s="2" t="s">
+      <c r="H464" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I464" s="1" t="s">
@@ -13699,10 +13712,10 @@
       <c r="F465" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G465" s="1" t="n">
+      <c r="G465" s="2" t="n">
         <v>3200.77</v>
       </c>
-      <c r="H465" s="2" t="s">
+      <c r="H465" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I465" s="1" t="s">
@@ -13728,10 +13741,10 @@
       <c r="F466" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G466" s="1" t="n">
+      <c r="G466" s="2" t="n">
         <v>2846.35</v>
       </c>
-      <c r="H466" s="2" t="s">
+      <c r="H466" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I466" s="1" t="s">
@@ -13757,10 +13770,10 @@
       <c r="F467" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G467" s="1" t="n">
+      <c r="G467" s="2" t="n">
         <v>2722.12</v>
       </c>
-      <c r="H467" s="2" t="s">
+      <c r="H467" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I467" s="1" t="s">
@@ -13786,10 +13799,10 @@
       <c r="F468" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G468" s="1" t="n">
+      <c r="G468" s="2" t="n">
         <v>5201.86</v>
       </c>
-      <c r="H468" s="2" t="s">
+      <c r="H468" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I468" s="1" t="s">
@@ -13815,10 +13828,10 @@
       <c r="F469" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G469" s="1" t="n">
+      <c r="G469" s="2" t="n">
         <v>5859.55</v>
       </c>
-      <c r="H469" s="2" t="s">
+      <c r="H469" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I469" s="1" t="s">
@@ -13844,10 +13857,10 @@
       <c r="F470" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G470" s="1" t="n">
+      <c r="G470" s="2" t="n">
         <v>5603.78</v>
       </c>
-      <c r="H470" s="2" t="s">
+      <c r="H470" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I470" s="1" t="s">
@@ -13873,10 +13886,10 @@
       <c r="F471" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G471" s="1" t="n">
+      <c r="G471" s="2" t="n">
         <v>4739.04</v>
       </c>
-      <c r="H471" s="2" t="s">
+      <c r="H471" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I471" s="1" t="s">
@@ -13902,10 +13915,10 @@
       <c r="F472" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G472" s="1" t="n">
+      <c r="G472" s="2" t="n">
         <v>4692.76</v>
       </c>
-      <c r="H472" s="2" t="s">
+      <c r="H472" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I472" s="1" t="s">
@@ -13931,10 +13944,10 @@
       <c r="F473" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G473" s="1" t="n">
+      <c r="G473" s="2" t="n">
         <v>5412.56</v>
       </c>
-      <c r="H473" s="2" t="s">
+      <c r="H473" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I473" s="1" t="s">
@@ -13960,10 +13973,10 @@
       <c r="F474" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G474" s="1" t="n">
+      <c r="G474" s="2" t="n">
         <v>5891.22</v>
       </c>
-      <c r="H474" s="2" t="s">
+      <c r="H474" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I474" s="1" t="s">
@@ -13989,10 +14002,10 @@
       <c r="F475" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G475" s="1" t="n">
+      <c r="G475" s="2" t="n">
         <v>6709.68</v>
       </c>
-      <c r="H475" s="2" t="s">
+      <c r="H475" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I475" s="1" t="s">
@@ -14018,10 +14031,10 @@
       <c r="F476" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G476" s="1" t="n">
+      <c r="G476" s="2" t="n">
         <v>10677.76</v>
       </c>
-      <c r="H476" s="2" t="s">
+      <c r="H476" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I476" s="1" t="s">
@@ -14047,10 +14060,10 @@
       <c r="F477" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G477" s="1" t="n">
+      <c r="G477" s="2" t="n">
         <v>12831.09</v>
       </c>
-      <c r="H477" s="2" t="s">
+      <c r="H477" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I477" s="1" t="s">
@@ -14076,10 +14089,10 @@
       <c r="F478" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G478" s="1" t="n">
+      <c r="G478" s="2" t="n">
         <v>2745.73</v>
       </c>
-      <c r="H478" s="2" t="s">
+      <c r="H478" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I478" s="1" t="s">
@@ -14105,10 +14118,10 @@
       <c r="F479" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G479" s="1" t="n">
+      <c r="G479" s="2" t="n">
         <v>1911.34</v>
       </c>
-      <c r="H479" s="2" t="s">
+      <c r="H479" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I479" s="1" t="s">
@@ -14134,10 +14147,10 @@
       <c r="F480" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G480" s="1" t="n">
+      <c r="G480" s="2" t="n">
         <v>1709.17</v>
       </c>
-      <c r="H480" s="2" t="s">
+      <c r="H480" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I480" s="1" t="s">
@@ -14163,10 +14176,10 @@
       <c r="F481" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G481" s="1" t="n">
+      <c r="G481" s="2" t="n">
         <v>1405.94</v>
       </c>
-      <c r="H481" s="2" t="s">
+      <c r="H481" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I481" s="1" t="s">
@@ -14192,10 +14205,10 @@
       <c r="F482" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G482" s="1" t="n">
+      <c r="G482" s="2" t="n">
         <v>1464.67</v>
       </c>
-      <c r="H482" s="2" t="s">
+      <c r="H482" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I482" s="1" t="s">
@@ -14221,10 +14234,10 @@
       <c r="F483" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G483" s="1" t="n">
+      <c r="G483" s="2" t="n">
         <v>1583.54</v>
       </c>
-      <c r="H483" s="2" t="s">
+      <c r="H483" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I483" s="1" t="s">
@@ -14250,10 +14263,10 @@
       <c r="F484" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G484" s="1" t="n">
+      <c r="G484" s="2" t="n">
         <v>1717.01</v>
       </c>
-      <c r="H484" s="2" t="s">
+      <c r="H484" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I484" s="1" t="s">
@@ -14279,10 +14292,10 @@
       <c r="F485" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G485" s="1" t="n">
+      <c r="G485" s="2" t="n">
         <v>1910.94</v>
       </c>
-      <c r="H485" s="2" t="s">
+      <c r="H485" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I485" s="1" t="s">
@@ -14308,10 +14321,10 @@
       <c r="F486" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G486" s="1" t="n">
+      <c r="G486" s="2" t="n">
         <v>2092.54</v>
       </c>
-      <c r="H486" s="2" t="s">
+      <c r="H486" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I486" s="1" t="s">
@@ -14337,10 +14350,10 @@
       <c r="F487" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G487" s="1" t="n">
+      <c r="G487" s="2" t="n">
         <v>2490.78</v>
       </c>
-      <c r="H487" s="2" t="s">
+      <c r="H487" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I487" s="1" t="s">
@@ -14366,10 +14379,10 @@
       <c r="F488" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G488" s="1" t="n">
+      <c r="G488" s="2" t="n">
         <v>3027.35</v>
       </c>
-      <c r="H488" s="2" t="s">
+      <c r="H488" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I488" s="1" t="s">
@@ -14395,10 +14408,10 @@
       <c r="F489" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G489" s="1" t="n">
+      <c r="G489" s="2" t="n">
         <v>3401.28</v>
       </c>
-      <c r="H489" s="2" t="s">
+      <c r="H489" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I489" s="1" t="s">
@@ -14424,10 +14437,10 @@
       <c r="F490" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G490" s="1" t="n">
+      <c r="G490" s="2" t="n">
         <v>5137.26</v>
       </c>
-      <c r="H490" s="2" t="s">
+      <c r="H490" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I490" s="1" t="s">
@@ -14453,10 +14466,10 @@
       <c r="F491" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G491" s="1" t="n">
+      <c r="G491" s="2" t="n">
         <v>7602.75</v>
       </c>
-      <c r="H491" s="2" t="s">
+      <c r="H491" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I491" s="1" t="s">
@@ -14482,10 +14495,10 @@
       <c r="F492" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G492" s="1" t="n">
+      <c r="G492" s="2" t="n">
         <v>2745.73</v>
       </c>
-      <c r="H492" s="2" t="s">
+      <c r="H492" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I492" s="1" t="s">
@@ -14511,10 +14524,10 @@
       <c r="F493" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G493" s="1" t="n">
+      <c r="G493" s="2" t="n">
         <v>1911.34</v>
       </c>
-      <c r="H493" s="2" t="s">
+      <c r="H493" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I493" s="1" t="s">
@@ -14540,10 +14553,10 @@
       <c r="F494" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G494" s="1" t="n">
+      <c r="G494" s="2" t="n">
         <v>1709.17</v>
       </c>
-      <c r="H494" s="2" t="s">
+      <c r="H494" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I494" s="1" t="s">
@@ -14569,10 +14582,10 @@
       <c r="F495" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G495" s="1" t="n">
+      <c r="G495" s="2" t="n">
         <v>1628.68</v>
       </c>
-      <c r="H495" s="2" t="s">
+      <c r="H495" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I495" s="1" t="s">
@@ -14598,10 +14611,10 @@
       <c r="F496" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G496" s="1" t="n">
+      <c r="G496" s="2" t="n">
         <v>3111.4</v>
       </c>
-      <c r="H496" s="2" t="s">
+      <c r="H496" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I496" s="1" t="s">
@@ -14627,10 +14640,10 @@
       <c r="F497" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G497" s="1" t="n">
+      <c r="G497" s="2" t="n">
         <v>3502.24</v>
       </c>
-      <c r="H497" s="2" t="s">
+      <c r="H497" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I497" s="1" t="s">
@@ -14656,10 +14669,10 @@
       <c r="F498" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G498" s="1" t="n">
+      <c r="G498" s="2" t="n">
         <v>3350.42</v>
       </c>
-      <c r="H498" s="2" t="s">
+      <c r="H498" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I498" s="1" t="s">
@@ -14685,10 +14698,10 @@
       <c r="F499" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G499" s="1" t="n">
+      <c r="G499" s="2" t="n">
         <v>2827.05</v>
       </c>
-      <c r="H499" s="2" t="s">
+      <c r="H499" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I499" s="1" t="s">
@@ -14714,10 +14727,10 @@
       <c r="F500" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G500" s="1" t="n">
+      <c r="G500" s="2" t="n">
         <v>2795.51</v>
       </c>
-      <c r="H500" s="2" t="s">
+      <c r="H500" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I500" s="1" t="s">
@@ -14743,10 +14756,10 @@
       <c r="F501" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G501" s="1" t="n">
+      <c r="G501" s="2" t="n">
         <v>3216.59</v>
       </c>
-      <c r="H501" s="2" t="s">
+      <c r="H501" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I501" s="1" t="s">
@@ -14772,10 +14785,10 @@
       <c r="F502" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G502" s="1" t="n">
+      <c r="G502" s="2" t="n">
         <v>3494.74</v>
       </c>
-      <c r="H502" s="2" t="s">
+      <c r="H502" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I502" s="1" t="s">
@@ -14801,10 +14814,10 @@
       <c r="F503" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G503" s="1" t="n">
+      <c r="G503" s="2" t="n">
         <v>3971.87</v>
       </c>
-      <c r="H503" s="2" t="s">
+      <c r="H503" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I503" s="1" t="s">
@@ -14830,10 +14843,10 @@
       <c r="F504" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G504" s="1" t="n">
+      <c r="G504" s="2" t="n">
         <v>6307.38</v>
       </c>
-      <c r="H504" s="2" t="s">
+      <c r="H504" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I504" s="1" t="s">
@@ -14859,10 +14872,10 @@
       <c r="F505" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G505" s="1" t="n">
+      <c r="G505" s="2" t="n">
         <v>7602.75</v>
       </c>
-      <c r="H505" s="2" t="s">
+      <c r="H505" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I505" s="1" t="s">
@@ -14870,6 +14883,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I505"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -14877,5 +14891,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>